--- a/data/input/Bastinetal_potential.xlsx
+++ b/data/input/Bastinetal_potential.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\GitHub\FOLUR-Restoration-maps\data\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide Cozza\Documents\GitHub\FOLUR-Restoration-maps\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EA5C2E-47FC-4362-8CA7-58D37653490F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB6556E-F888-478E-A34C-6CB9739B2754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{148597CD-38FE-4736-937D-463902385378}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="241">
   <si>
     <t>BRN</t>
   </si>
@@ -168,708 +168,6 @@
   </si>
   <si>
     <t>Value</t>
-  </si>
-  <si>
-    <t>Bastinetal_2020</t>
-  </si>
-  <si>
-    <t>Bastinetal_2021</t>
-  </si>
-  <si>
-    <t>Bastinetal_2022</t>
-  </si>
-  <si>
-    <t>Bastinetal_2023</t>
-  </si>
-  <si>
-    <t>Bastinetal_2024</t>
-  </si>
-  <si>
-    <t>Bastinetal_2025</t>
-  </si>
-  <si>
-    <t>Bastinetal_2026</t>
-  </si>
-  <si>
-    <t>Bastinetal_2027</t>
-  </si>
-  <si>
-    <t>Bastinetal_2028</t>
-  </si>
-  <si>
-    <t>Bastinetal_2029</t>
-  </si>
-  <si>
-    <t>Bastinetal_2030</t>
-  </si>
-  <si>
-    <t>Bastinetal_2031</t>
-  </si>
-  <si>
-    <t>Bastinetal_2032</t>
-  </si>
-  <si>
-    <t>Bastinetal_2033</t>
-  </si>
-  <si>
-    <t>Bastinetal_2034</t>
-  </si>
-  <si>
-    <t>Bastinetal_2035</t>
-  </si>
-  <si>
-    <t>Bastinetal_2036</t>
-  </si>
-  <si>
-    <t>Bastinetal_2037</t>
-  </si>
-  <si>
-    <t>Bastinetal_2038</t>
-  </si>
-  <si>
-    <t>Bastinetal_2039</t>
-  </si>
-  <si>
-    <t>Bastinetal_2040</t>
-  </si>
-  <si>
-    <t>Bastinetal_2041</t>
-  </si>
-  <si>
-    <t>Bastinetal_2042</t>
-  </si>
-  <si>
-    <t>Bastinetal_2043</t>
-  </si>
-  <si>
-    <t>Bastinetal_2044</t>
-  </si>
-  <si>
-    <t>Bastinetal_2045</t>
-  </si>
-  <si>
-    <t>Bastinetal_2046</t>
-  </si>
-  <si>
-    <t>Bastinetal_2047</t>
-  </si>
-  <si>
-    <t>Bastinetal_2048</t>
-  </si>
-  <si>
-    <t>Bastinetal_2049</t>
-  </si>
-  <si>
-    <t>Bastinetal_2050</t>
-  </si>
-  <si>
-    <t>Bastinetal_2051</t>
-  </si>
-  <si>
-    <t>Bastinetal_2052</t>
-  </si>
-  <si>
-    <t>Bastinetal_2053</t>
-  </si>
-  <si>
-    <t>Bastinetal_2054</t>
-  </si>
-  <si>
-    <t>Bastinetal_2055</t>
-  </si>
-  <si>
-    <t>Bastinetal_2056</t>
-  </si>
-  <si>
-    <t>Bastinetal_2057</t>
-  </si>
-  <si>
-    <t>Bastinetal_2058</t>
-  </si>
-  <si>
-    <t>Bastinetal_2059</t>
-  </si>
-  <si>
-    <t>Bastinetal_2060</t>
-  </si>
-  <si>
-    <t>Bastinetal_2061</t>
-  </si>
-  <si>
-    <t>Bastinetal_2062</t>
-  </si>
-  <si>
-    <t>Bastinetal_2063</t>
-  </si>
-  <si>
-    <t>Bastinetal_2064</t>
-  </si>
-  <si>
-    <t>Bastinetal_2065</t>
-  </si>
-  <si>
-    <t>Bastinetal_2066</t>
-  </si>
-  <si>
-    <t>Bastinetal_2067</t>
-  </si>
-  <si>
-    <t>Bastinetal_2068</t>
-  </si>
-  <si>
-    <t>Bastinetal_2069</t>
-  </si>
-  <si>
-    <t>Bastinetal_2070</t>
-  </si>
-  <si>
-    <t>Bastinetal_2071</t>
-  </si>
-  <si>
-    <t>Bastinetal_2072</t>
-  </si>
-  <si>
-    <t>Bastinetal_2073</t>
-  </si>
-  <si>
-    <t>Bastinetal_2074</t>
-  </si>
-  <si>
-    <t>Bastinetal_2075</t>
-  </si>
-  <si>
-    <t>Bastinetal_2076</t>
-  </si>
-  <si>
-    <t>Bastinetal_2077</t>
-  </si>
-  <si>
-    <t>Bastinetal_2078</t>
-  </si>
-  <si>
-    <t>Bastinetal_2079</t>
-  </si>
-  <si>
-    <t>Bastinetal_2080</t>
-  </si>
-  <si>
-    <t>Bastinetal_2081</t>
-  </si>
-  <si>
-    <t>Bastinetal_2082</t>
-  </si>
-  <si>
-    <t>Bastinetal_2083</t>
-  </si>
-  <si>
-    <t>Bastinetal_2084</t>
-  </si>
-  <si>
-    <t>Bastinetal_2085</t>
-  </si>
-  <si>
-    <t>Bastinetal_2086</t>
-  </si>
-  <si>
-    <t>Bastinetal_2087</t>
-  </si>
-  <si>
-    <t>Bastinetal_2088</t>
-  </si>
-  <si>
-    <t>Bastinetal_2089</t>
-  </si>
-  <si>
-    <t>Bastinetal_2090</t>
-  </si>
-  <si>
-    <t>Bastinetal_2091</t>
-  </si>
-  <si>
-    <t>Bastinetal_2092</t>
-  </si>
-  <si>
-    <t>Bastinetal_2093</t>
-  </si>
-  <si>
-    <t>Bastinetal_2094</t>
-  </si>
-  <si>
-    <t>Bastinetal_2095</t>
-  </si>
-  <si>
-    <t>Bastinetal_2096</t>
-  </si>
-  <si>
-    <t>Bastinetal_2097</t>
-  </si>
-  <si>
-    <t>Bastinetal_2098</t>
-  </si>
-  <si>
-    <t>Bastinetal_2099</t>
-  </si>
-  <si>
-    <t>Bastinetal_2100</t>
-  </si>
-  <si>
-    <t>Bastinetal_2101</t>
-  </si>
-  <si>
-    <t>Bastinetal_2102</t>
-  </si>
-  <si>
-    <t>Bastinetal_2103</t>
-  </si>
-  <si>
-    <t>Bastinetal_2104</t>
-  </si>
-  <si>
-    <t>Bastinetal_2105</t>
-  </si>
-  <si>
-    <t>Bastinetal_2106</t>
-  </si>
-  <si>
-    <t>Bastinetal_2107</t>
-  </si>
-  <si>
-    <t>Bastinetal_2108</t>
-  </si>
-  <si>
-    <t>Bastinetal_2109</t>
-  </si>
-  <si>
-    <t>Bastinetal_2110</t>
-  </si>
-  <si>
-    <t>Bastinetal_2111</t>
-  </si>
-  <si>
-    <t>Bastinetal_2112</t>
-  </si>
-  <si>
-    <t>Bastinetal_2113</t>
-  </si>
-  <si>
-    <t>Bastinetal_2114</t>
-  </si>
-  <si>
-    <t>Bastinetal_2115</t>
-  </si>
-  <si>
-    <t>Bastinetal_2116</t>
-  </si>
-  <si>
-    <t>Bastinetal_2117</t>
-  </si>
-  <si>
-    <t>Bastinetal_2118</t>
-  </si>
-  <si>
-    <t>Bastinetal_2119</t>
-  </si>
-  <si>
-    <t>Bastinetal_2120</t>
-  </si>
-  <si>
-    <t>Bastinetal_2121</t>
-  </si>
-  <si>
-    <t>Bastinetal_2122</t>
-  </si>
-  <si>
-    <t>Bastinetal_2123</t>
-  </si>
-  <si>
-    <t>Bastinetal_2124</t>
-  </si>
-  <si>
-    <t>Bastinetal_2125</t>
-  </si>
-  <si>
-    <t>Bastinetal_2126</t>
-  </si>
-  <si>
-    <t>Bastinetal_2127</t>
-  </si>
-  <si>
-    <t>Bastinetal_2128</t>
-  </si>
-  <si>
-    <t>Bastinetal_2129</t>
-  </si>
-  <si>
-    <t>Bastinetal_2130</t>
-  </si>
-  <si>
-    <t>Bastinetal_2131</t>
-  </si>
-  <si>
-    <t>Bastinetal_2132</t>
-  </si>
-  <si>
-    <t>Bastinetal_2133</t>
-  </si>
-  <si>
-    <t>Bastinetal_2134</t>
-  </si>
-  <si>
-    <t>Bastinetal_2135</t>
-  </si>
-  <si>
-    <t>Bastinetal_2136</t>
-  </si>
-  <si>
-    <t>Bastinetal_2137</t>
-  </si>
-  <si>
-    <t>Bastinetal_2138</t>
-  </si>
-  <si>
-    <t>Bastinetal_2139</t>
-  </si>
-  <si>
-    <t>Bastinetal_2140</t>
-  </si>
-  <si>
-    <t>Bastinetal_2141</t>
-  </si>
-  <si>
-    <t>Bastinetal_2142</t>
-  </si>
-  <si>
-    <t>Bastinetal_2143</t>
-  </si>
-  <si>
-    <t>Bastinetal_2144</t>
-  </si>
-  <si>
-    <t>Bastinetal_2145</t>
-  </si>
-  <si>
-    <t>Bastinetal_2146</t>
-  </si>
-  <si>
-    <t>Bastinetal_2147</t>
-  </si>
-  <si>
-    <t>Bastinetal_2148</t>
-  </si>
-  <si>
-    <t>Bastinetal_2149</t>
-  </si>
-  <si>
-    <t>Bastinetal_2150</t>
-  </si>
-  <si>
-    <t>Bastinetal_2151</t>
-  </si>
-  <si>
-    <t>Bastinetal_2152</t>
-  </si>
-  <si>
-    <t>Bastinetal_2153</t>
-  </si>
-  <si>
-    <t>Bastinetal_2154</t>
-  </si>
-  <si>
-    <t>Bastinetal_2155</t>
-  </si>
-  <si>
-    <t>Bastinetal_2156</t>
-  </si>
-  <si>
-    <t>Bastinetal_2157</t>
-  </si>
-  <si>
-    <t>Bastinetal_2158</t>
-  </si>
-  <si>
-    <t>Bastinetal_2159</t>
-  </si>
-  <si>
-    <t>Bastinetal_2160</t>
-  </si>
-  <si>
-    <t>Bastinetal_2161</t>
-  </si>
-  <si>
-    <t>Bastinetal_2162</t>
-  </si>
-  <si>
-    <t>Bastinetal_2163</t>
-  </si>
-  <si>
-    <t>Bastinetal_2164</t>
-  </si>
-  <si>
-    <t>Bastinetal_2165</t>
-  </si>
-  <si>
-    <t>Bastinetal_2166</t>
-  </si>
-  <si>
-    <t>Bastinetal_2167</t>
-  </si>
-  <si>
-    <t>Bastinetal_2168</t>
-  </si>
-  <si>
-    <t>Bastinetal_2169</t>
-  </si>
-  <si>
-    <t>Bastinetal_2170</t>
-  </si>
-  <si>
-    <t>Bastinetal_2171</t>
-  </si>
-  <si>
-    <t>Bastinetal_2172</t>
-  </si>
-  <si>
-    <t>Bastinetal_2173</t>
-  </si>
-  <si>
-    <t>Bastinetal_2174</t>
-  </si>
-  <si>
-    <t>Bastinetal_2175</t>
-  </si>
-  <si>
-    <t>Bastinetal_2176</t>
-  </si>
-  <si>
-    <t>Bastinetal_2177</t>
-  </si>
-  <si>
-    <t>Bastinetal_2178</t>
-  </si>
-  <si>
-    <t>Bastinetal_2179</t>
-  </si>
-  <si>
-    <t>Bastinetal_2180</t>
-  </si>
-  <si>
-    <t>Bastinetal_2181</t>
-  </si>
-  <si>
-    <t>Bastinetal_2182</t>
-  </si>
-  <si>
-    <t>Bastinetal_2183</t>
-  </si>
-  <si>
-    <t>Bastinetal_2184</t>
-  </si>
-  <si>
-    <t>Bastinetal_2185</t>
-  </si>
-  <si>
-    <t>Bastinetal_2186</t>
-  </si>
-  <si>
-    <t>Bastinetal_2187</t>
-  </si>
-  <si>
-    <t>Bastinetal_2188</t>
-  </si>
-  <si>
-    <t>Bastinetal_2189</t>
-  </si>
-  <si>
-    <t>Bastinetal_2190</t>
-  </si>
-  <si>
-    <t>Bastinetal_2191</t>
-  </si>
-  <si>
-    <t>Bastinetal_2192</t>
-  </si>
-  <si>
-    <t>Bastinetal_2193</t>
-  </si>
-  <si>
-    <t>Bastinetal_2194</t>
-  </si>
-  <si>
-    <t>Bastinetal_2195</t>
-  </si>
-  <si>
-    <t>Bastinetal_2196</t>
-  </si>
-  <si>
-    <t>Bastinetal_2197</t>
-  </si>
-  <si>
-    <t>Bastinetal_2198</t>
-  </si>
-  <si>
-    <t>Bastinetal_2199</t>
-  </si>
-  <si>
-    <t>Bastinetal_2200</t>
-  </si>
-  <si>
-    <t>Bastinetal_2201</t>
-  </si>
-  <si>
-    <t>Bastinetal_2202</t>
-  </si>
-  <si>
-    <t>Bastinetal_2203</t>
-  </si>
-  <si>
-    <t>Bastinetal_2204</t>
-  </si>
-  <si>
-    <t>Bastinetal_2205</t>
-  </si>
-  <si>
-    <t>Bastinetal_2206</t>
-  </si>
-  <si>
-    <t>Bastinetal_2207</t>
-  </si>
-  <si>
-    <t>Bastinetal_2208</t>
-  </si>
-  <si>
-    <t>Bastinetal_2209</t>
-  </si>
-  <si>
-    <t>Bastinetal_2210</t>
-  </si>
-  <si>
-    <t>Bastinetal_2211</t>
-  </si>
-  <si>
-    <t>Bastinetal_2212</t>
-  </si>
-  <si>
-    <t>Bastinetal_2213</t>
-  </si>
-  <si>
-    <t>Bastinetal_2214</t>
-  </si>
-  <si>
-    <t>Bastinetal_2215</t>
-  </si>
-  <si>
-    <t>Bastinetal_2216</t>
-  </si>
-  <si>
-    <t>Bastinetal_2217</t>
-  </si>
-  <si>
-    <t>Bastinetal_2218</t>
-  </si>
-  <si>
-    <t>Bastinetal_2219</t>
-  </si>
-  <si>
-    <t>Bastinetal_2220</t>
-  </si>
-  <si>
-    <t>Bastinetal_2221</t>
-  </si>
-  <si>
-    <t>Bastinetal_2222</t>
-  </si>
-  <si>
-    <t>Bastinetal_2223</t>
-  </si>
-  <si>
-    <t>Bastinetal_2224</t>
-  </si>
-  <si>
-    <t>Bastinetal_2225</t>
-  </si>
-  <si>
-    <t>Bastinetal_2226</t>
-  </si>
-  <si>
-    <t>Bastinetal_2227</t>
-  </si>
-  <si>
-    <t>Bastinetal_2228</t>
-  </si>
-  <si>
-    <t>Bastinetal_2229</t>
-  </si>
-  <si>
-    <t>Bastinetal_2230</t>
-  </si>
-  <si>
-    <t>Bastinetal_2231</t>
-  </si>
-  <si>
-    <t>Bastinetal_2232</t>
-  </si>
-  <si>
-    <t>Bastinetal_2233</t>
-  </si>
-  <si>
-    <t>Bastinetal_2234</t>
-  </si>
-  <si>
-    <t>Bastinetal_2235</t>
-  </si>
-  <si>
-    <t>Bastinetal_2236</t>
-  </si>
-  <si>
-    <t>Bastinetal_2237</t>
-  </si>
-  <si>
-    <t>Bastinetal_2238</t>
-  </si>
-  <si>
-    <t>Bastinetal_2239</t>
-  </si>
-  <si>
-    <t>Bastinetal_2240</t>
-  </si>
-  <si>
-    <t>Bastinetal_2241</t>
-  </si>
-  <si>
-    <t>Bastinetal_2242</t>
-  </si>
-  <si>
-    <t>Bastinetal_2243</t>
-  </si>
-  <si>
-    <t>Bastinetal_2244</t>
-  </si>
-  <si>
-    <t>Bastinetal_2245</t>
-  </si>
-  <si>
-    <t>Bastinetal_2246</t>
-  </si>
-  <si>
-    <t>Bastinetal_2247</t>
-  </si>
-  <si>
-    <t>Bastinetal_2248</t>
-  </si>
-  <si>
-    <t>Bastinetal_2249</t>
-  </si>
-  <si>
-    <t>Bastinetal_2250</t>
-  </si>
-  <si>
-    <t>Bastinetal_2251</t>
-  </si>
-  <si>
-    <t>Bastinetal_2252</t>
-  </si>
-  <si>
-    <t>Bastinetal_2253</t>
   </si>
   <si>
     <t>description</t>
@@ -1835,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAEB45E-6932-4D6B-99E4-B15F3F1D9E2F}">
   <dimension ref="A1:F236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D236"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1858,10 +1156,10 @@
         <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>473</v>
+        <v>239</v>
       </c>
       <c r="E1" t="s">
-        <v>278</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s">
         <v>38</v>
@@ -1869,7 +1167,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -1878,7 +1176,7 @@
         <v>2947728.8310000002</v>
       </c>
       <c r="D2" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E2" t="s">
         <v>40</v>
@@ -1889,7 +1187,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
@@ -1898,18 +1196,18 @@
         <v>203966.91500000001</v>
       </c>
       <c r="D3" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>42</v>
@@ -1918,18 +1216,18 @@
         <v>859173.41</v>
       </c>
       <c r="D4" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E4" t="s">
         <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
@@ -1938,18 +1236,18 @@
         <v>4936.366</v>
       </c>
       <c r="D5" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E5" t="s">
         <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>42</v>
@@ -1958,18 +1256,18 @@
         <v>716.46800000000007</v>
       </c>
       <c r="D6" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E6" t="s">
         <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
@@ -1978,18 +1276,18 @@
         <v>13635862.530000001</v>
       </c>
       <c r="D7" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E7" t="s">
         <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
@@ -1998,18 +1296,18 @@
         <v>811.63700000000006</v>
       </c>
       <c r="D8" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E8" t="s">
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>286</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>42</v>
@@ -2018,18 +1316,18 @@
         <v>1129.5640000000001</v>
       </c>
       <c r="D9" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E9" t="s">
         <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>287</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>42</v>
@@ -2038,18 +1336,18 @@
         <v>19683003.939999998</v>
       </c>
       <c r="D10" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E10" t="s">
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>288</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
         <v>42</v>
@@ -2058,18 +1356,18 @@
         <v>164285.56200000001</v>
       </c>
       <c r="D11" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E11" t="s">
         <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>289</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -2078,18 +1376,18 @@
         <v>868.64099999999996</v>
       </c>
       <c r="D12" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E12" t="s">
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>290</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
@@ -2098,18 +1396,18 @@
         <v>57960579.729999997</v>
       </c>
       <c r="D13" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E13" t="s">
         <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>291</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
         <v>42</v>
@@ -2118,18 +1416,18 @@
         <v>781613.15099999995</v>
       </c>
       <c r="D14" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E14" t="s">
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>292</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
@@ -2138,18 +1436,18 @@
         <v>460080.239</v>
       </c>
       <c r="D15" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E15" t="s">
         <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>293</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
@@ -2158,18 +1456,18 @@
         <v>390.31400000000002</v>
       </c>
       <c r="D16" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E16" t="s">
         <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
@@ -2178,18 +1476,18 @@
         <v>501104.02799999999</v>
       </c>
       <c r="D17" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E17" t="s">
         <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>295</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
         <v>42</v>
@@ -2198,18 +1496,18 @@
         <v>5628.7869999999994</v>
       </c>
       <c r="D18" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E18" t="s">
         <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>296</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
         <v>42</v>
@@ -2218,18 +1516,18 @@
         <v>1651630.2119999998</v>
       </c>
       <c r="D19" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E19" t="s">
         <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>297</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
         <v>42</v>
@@ -2238,18 +1536,18 @@
         <v>282458.728</v>
       </c>
       <c r="D20" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E20" t="s">
         <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>298</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
         <v>42</v>
@@ -2258,18 +1556,18 @@
         <v>146971.01400000002</v>
       </c>
       <c r="D21" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E21" t="s">
         <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>299</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
         <v>42</v>
@@ -2278,18 +1576,18 @@
         <v>1864923.0590000001</v>
       </c>
       <c r="D22" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E22" t="s">
         <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>300</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
         <v>42</v>
@@ -2298,18 +1596,18 @@
         <v>300.30500000000001</v>
       </c>
       <c r="D23" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E23" t="s">
         <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>301</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
         <v>42</v>
@@ -2318,18 +1616,18 @@
         <v>451067.93699999998</v>
       </c>
       <c r="D24" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E24" t="s">
         <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>302</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
         <v>42</v>
@@ -2338,18 +1636,18 @@
         <v>9839034.7330000009</v>
       </c>
       <c r="D25" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E25" t="s">
         <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>303</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
         <v>42</v>
@@ -2358,18 +1656,18 @@
         <v>426278.19700000004</v>
       </c>
       <c r="D26" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E26" t="s">
         <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>304</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
@@ -2378,18 +1676,18 @@
         <v>6502814.0309999995</v>
       </c>
       <c r="D27" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E27" t="s">
         <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>305</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
         <v>42</v>
@@ -2398,18 +1696,18 @@
         <v>49710341.470000006</v>
       </c>
       <c r="D28" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E28" t="s">
         <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>306</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
         <v>42</v>
@@ -2418,13 +1716,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E29" t="s">
         <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2438,13 +1736,13 @@
         <v>386.80900000000003</v>
       </c>
       <c r="D30" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E30" t="s">
         <v>40</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2458,18 +1756,18 @@
         <v>4995.366</v>
       </c>
       <c r="D31" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E31" t="s">
         <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>307</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
         <v>42</v>
@@ -2478,18 +1776,18 @@
         <v>642162.38599999994</v>
       </c>
       <c r="D32" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E32" t="s">
         <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>308</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
         <v>42</v>
@@ -2498,18 +1796,18 @@
         <v>1452385.598</v>
       </c>
       <c r="D33" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E33" t="s">
         <v>40</v>
       </c>
       <c r="F33" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>309</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
         <v>42</v>
@@ -2518,18 +1816,18 @@
         <v>250402.13399999999</v>
       </c>
       <c r="D34" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E34" t="s">
         <v>40</v>
       </c>
       <c r="F34" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>310</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
         <v>42</v>
@@ -2538,18 +1836,18 @@
         <v>880454.73900000006</v>
       </c>
       <c r="D35" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E35" t="s">
         <v>40</v>
       </c>
       <c r="F35" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>311</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
@@ -2558,18 +1856,18 @@
         <v>3354201.5260000001</v>
       </c>
       <c r="D36" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E36" t="s">
         <v>40</v>
       </c>
       <c r="F36" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>312</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
         <v>42</v>
@@ -2578,13 +1876,13 @@
         <v>78455318.859999999</v>
       </c>
       <c r="D37" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E37" t="s">
         <v>40</v>
       </c>
       <c r="F37" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2598,18 +1896,18 @@
         <v>82180.112999999998</v>
       </c>
       <c r="D38" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E38" t="s">
         <v>40</v>
       </c>
       <c r="F38" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>313</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
         <v>42</v>
@@ -2618,18 +1916,18 @@
         <v>932.89800000000002</v>
       </c>
       <c r="D39" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E39" t="s">
         <v>40</v>
       </c>
       <c r="F39" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
         <v>42</v>
@@ -2638,18 +1936,18 @@
         <v>5253760.3449999997</v>
       </c>
       <c r="D40" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E40" t="s">
         <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>315</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
@@ -2658,18 +1956,18 @@
         <v>6132050.4170000004</v>
       </c>
       <c r="D41" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E41" t="s">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>316</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
@@ -2678,18 +1976,18 @@
         <v>4419970.0990000004</v>
       </c>
       <c r="D42" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E42" t="s">
         <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>317</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
@@ -2698,18 +1996,18 @@
         <v>40181827.339999996</v>
       </c>
       <c r="D43" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E43" t="s">
         <v>40</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>318</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s">
         <v>42</v>
@@ -2718,18 +2016,18 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E44" t="s">
         <v>40</v>
       </c>
       <c r="F44" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>319</v>
+        <v>85</v>
       </c>
       <c r="B45" t="s">
         <v>42</v>
@@ -2738,18 +2036,18 @@
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E45" t="s">
         <v>40</v>
       </c>
       <c r="F45" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>320</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
         <v>42</v>
@@ -2758,18 +2056,18 @@
         <v>12529088.67</v>
       </c>
       <c r="D46" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E46" t="s">
         <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>321</v>
+        <v>87</v>
       </c>
       <c r="B47" t="s">
         <v>42</v>
@@ -2778,13 +2076,13 @@
         <v>16625.436999999998</v>
       </c>
       <c r="D47" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E47" t="s">
         <v>40</v>
       </c>
       <c r="F47" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2798,13 +2096,13 @@
         <v>1800390.5490000001</v>
       </c>
       <c r="D48" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E48" t="s">
         <v>40</v>
       </c>
       <c r="F48" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2818,18 +2116,18 @@
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E49" t="s">
         <v>40</v>
       </c>
       <c r="F49" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>322</v>
+        <v>88</v>
       </c>
       <c r="B50" t="s">
         <v>42</v>
@@ -2838,18 +2136,18 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E50" t="s">
         <v>40</v>
       </c>
       <c r="F50" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>323</v>
+        <v>89</v>
       </c>
       <c r="B51" t="s">
         <v>42</v>
@@ -2858,13 +2156,13 @@
         <v>319923.41899999999</v>
       </c>
       <c r="D51" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E51" t="s">
         <v>40</v>
       </c>
       <c r="F51" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2878,18 +2176,18 @@
         <v>4345077.3650000002</v>
       </c>
       <c r="D52" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E52" t="s">
         <v>40</v>
       </c>
       <c r="F52" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>324</v>
+        <v>90</v>
       </c>
       <c r="B53" t="s">
         <v>42</v>
@@ -2898,18 +2196,18 @@
         <v>249828.43599999999</v>
       </c>
       <c r="D53" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E53" t="s">
         <v>40</v>
       </c>
       <c r="F53" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>325</v>
+        <v>91</v>
       </c>
       <c r="B54" t="s">
         <v>42</v>
@@ -2918,18 +2216,18 @@
         <v>1649796.0389999999</v>
       </c>
       <c r="D54" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E54" t="s">
         <v>40</v>
       </c>
       <c r="F54" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>326</v>
+        <v>92</v>
       </c>
       <c r="B55" t="s">
         <v>42</v>
@@ -2938,18 +2236,18 @@
         <v>45836.574000000001</v>
       </c>
       <c r="D55" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E55" t="s">
         <v>40</v>
       </c>
       <c r="F55" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>327</v>
+        <v>93</v>
       </c>
       <c r="B56" t="s">
         <v>42</v>
@@ -2958,18 +2256,18 @@
         <v>634479.72699999996</v>
       </c>
       <c r="D56" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E56" t="s">
         <v>40</v>
       </c>
       <c r="F56" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>328</v>
+        <v>94</v>
       </c>
       <c r="B57" t="s">
         <v>42</v>
@@ -2978,18 +2276,18 @@
         <v>400041.011</v>
       </c>
       <c r="D57" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E57" t="s">
         <v>40</v>
       </c>
       <c r="F57" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>329</v>
+        <v>95</v>
       </c>
       <c r="B58" t="s">
         <v>42</v>
@@ -2998,18 +2296,18 @@
         <v>105124.287</v>
       </c>
       <c r="D58" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E58" t="s">
         <v>40</v>
       </c>
       <c r="F58" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>330</v>
+        <v>96</v>
       </c>
       <c r="B59" t="s">
         <v>42</v>
@@ -3018,18 +2316,18 @@
         <v>1735.8209999999999</v>
       </c>
       <c r="D59" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E59" t="s">
         <v>40</v>
       </c>
       <c r="F59" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>331</v>
+        <v>97</v>
       </c>
       <c r="B60" t="s">
         <v>42</v>
@@ -3038,13 +2336,13 @@
         <v>276767.68200000003</v>
       </c>
       <c r="D60" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E60" t="s">
         <v>40</v>
       </c>
       <c r="F60" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -3058,18 +2356,18 @@
         <v>20931.936000000002</v>
       </c>
       <c r="D61" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E61" t="s">
         <v>40</v>
       </c>
       <c r="F61" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>332</v>
+        <v>98</v>
       </c>
       <c r="B62" t="s">
         <v>42</v>
@@ -3078,13 +2376,13 @@
         <v>1715670.308</v>
       </c>
       <c r="D62" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E62" t="s">
         <v>40</v>
       </c>
       <c r="F62" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -3098,18 +2396,18 @@
         <v>141180.755</v>
       </c>
       <c r="D63" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E63" t="s">
         <v>40</v>
       </c>
       <c r="F63" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>333</v>
+        <v>99</v>
       </c>
       <c r="B64" t="s">
         <v>42</v>
@@ -3118,18 +2416,18 @@
         <v>154017.50399999999</v>
       </c>
       <c r="D64" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E64" t="s">
         <v>40</v>
       </c>
       <c r="F64" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>334</v>
+        <v>100</v>
       </c>
       <c r="B65" t="s">
         <v>42</v>
@@ -3138,18 +2436,18 @@
         <v>52818.464</v>
       </c>
       <c r="D65" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E65" t="s">
         <v>40</v>
       </c>
       <c r="F65" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>335</v>
+        <v>101</v>
       </c>
       <c r="B66" t="s">
         <v>42</v>
@@ -3158,18 +2456,18 @@
         <v>1168993.6610000001</v>
       </c>
       <c r="D66" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E66" t="s">
         <v>40</v>
       </c>
       <c r="F66" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>336</v>
+        <v>102</v>
       </c>
       <c r="B67" t="s">
         <v>42</v>
@@ -3178,18 +2476,18 @@
         <v>207397.53099999999</v>
       </c>
       <c r="D67" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E67" t="s">
         <v>40</v>
       </c>
       <c r="F67" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>337</v>
+        <v>103</v>
       </c>
       <c r="B68" t="s">
         <v>42</v>
@@ -3198,13 +2496,13 @@
         <v>9499401.6559999995</v>
       </c>
       <c r="D68" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E68" t="s">
         <v>40</v>
       </c>
       <c r="F68" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -3218,18 +2516,18 @@
         <v>326238.62900000002</v>
       </c>
       <c r="D69" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E69" t="s">
         <v>40</v>
       </c>
       <c r="F69" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>338</v>
+        <v>104</v>
       </c>
       <c r="B70" t="s">
         <v>42</v>
@@ -3238,13 +2536,13 @@
         <v>30204.496999999999</v>
       </c>
       <c r="D70" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E70" t="s">
         <v>40</v>
       </c>
       <c r="F70" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -3258,18 +2556,18 @@
         <v>590.82600000000002</v>
       </c>
       <c r="D71" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E71" t="s">
         <v>40</v>
       </c>
       <c r="F71" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>339</v>
+        <v>105</v>
       </c>
       <c r="B72" t="s">
         <v>42</v>
@@ -3278,18 +2576,18 @@
         <v>11391.784</v>
       </c>
       <c r="D72" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E72" t="s">
         <v>40</v>
       </c>
       <c r="F72" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>340</v>
+        <v>106</v>
       </c>
       <c r="B73" t="s">
         <v>42</v>
@@ -3298,18 +2596,18 @@
         <v>4524542.3139999993</v>
       </c>
       <c r="D73" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E73" t="s">
         <v>40</v>
       </c>
       <c r="F73" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>341</v>
+        <v>107</v>
       </c>
       <c r="B74" t="s">
         <v>42</v>
@@ -3318,18 +2616,18 @@
         <v>3357562.5720000002</v>
       </c>
       <c r="D74" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E74" t="s">
         <v>40</v>
       </c>
       <c r="F74" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>342</v>
+        <v>108</v>
       </c>
       <c r="B75" t="s">
         <v>42</v>
@@ -3338,18 +2636,18 @@
         <v>100132.273</v>
       </c>
       <c r="D75" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E75" t="s">
         <v>40</v>
       </c>
       <c r="F75" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>343</v>
+        <v>109</v>
       </c>
       <c r="B76" t="s">
         <v>42</v>
@@ -3358,13 +2656,13 @@
         <v>903.73899999999992</v>
       </c>
       <c r="D76" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E76" t="s">
         <v>40</v>
       </c>
       <c r="F76" t="s">
-        <v>117</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3378,18 +2676,18 @@
         <v>254249.18099999998</v>
       </c>
       <c r="D77" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E77" t="s">
         <v>40</v>
       </c>
       <c r="F77" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>344</v>
+        <v>110</v>
       </c>
       <c r="B78" t="s">
         <v>42</v>
@@ -3398,18 +2696,18 @@
         <v>532962.429</v>
       </c>
       <c r="D78" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E78" t="s">
         <v>40</v>
       </c>
       <c r="F78" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>345</v>
+        <v>111</v>
       </c>
       <c r="B79" t="s">
         <v>42</v>
@@ -3418,18 +2716,18 @@
         <v>493693.67</v>
       </c>
       <c r="D79" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E79" t="s">
         <v>40</v>
       </c>
       <c r="F79" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>346</v>
+        <v>112</v>
       </c>
       <c r="B80" t="s">
         <v>42</v>
@@ -3438,18 +2736,18 @@
         <v>3185370.4369999999</v>
       </c>
       <c r="D80" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E80" t="s">
         <v>40</v>
       </c>
       <c r="F80" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>347</v>
+        <v>113</v>
       </c>
       <c r="B81" t="s">
         <v>42</v>
@@ -3458,18 +2756,18 @@
         <v>2651098.1509999996</v>
       </c>
       <c r="D81" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E81" t="s">
         <v>40</v>
       </c>
       <c r="F81" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>348</v>
+        <v>114</v>
       </c>
       <c r="B82" t="s">
         <v>42</v>
@@ -3478,18 +2776,18 @@
         <v>67.3</v>
       </c>
       <c r="D82" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E82" t="s">
         <v>40</v>
       </c>
       <c r="F82" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>349</v>
+        <v>115</v>
       </c>
       <c r="B83" t="s">
         <v>42</v>
@@ -3498,18 +2796,18 @@
         <v>1119722.2110000001</v>
       </c>
       <c r="D83" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E83" t="s">
         <v>40</v>
       </c>
       <c r="F83" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>350</v>
+        <v>116</v>
       </c>
       <c r="B84" t="s">
         <v>42</v>
@@ -3518,18 +2816,18 @@
         <v>1500187.7159999998</v>
       </c>
       <c r="D84" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E84" t="s">
         <v>40</v>
       </c>
       <c r="F84" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>351</v>
+        <v>117</v>
       </c>
       <c r="B85" t="s">
         <v>42</v>
@@ -3538,18 +2836,18 @@
         <v>1555.998</v>
       </c>
       <c r="D85" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E85" t="s">
         <v>40</v>
       </c>
       <c r="F85" t="s">
-        <v>126</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>352</v>
+        <v>118</v>
       </c>
       <c r="B86" t="s">
         <v>42</v>
@@ -3558,18 +2856,18 @@
         <v>8766</v>
       </c>
       <c r="D86" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E86" t="s">
         <v>40</v>
       </c>
       <c r="F86" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>353</v>
+        <v>119</v>
       </c>
       <c r="B87" t="s">
         <v>42</v>
@@ -3578,18 +2876,18 @@
         <v>10964.618</v>
       </c>
       <c r="D87" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E87" t="s">
         <v>40</v>
       </c>
       <c r="F87" t="s">
-        <v>128</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>354</v>
+        <v>120</v>
       </c>
       <c r="B88" t="s">
         <v>42</v>
@@ -3598,18 +2896,18 @@
         <v>1197185.341</v>
       </c>
       <c r="D88" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E88" t="s">
         <v>40</v>
       </c>
       <c r="F88" t="s">
-        <v>129</v>
+        <v>39</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>355</v>
+        <v>121</v>
       </c>
       <c r="B89" t="s">
         <v>42</v>
@@ -3618,18 +2916,18 @@
         <v>4844235.2120000003</v>
       </c>
       <c r="D89" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E89" t="s">
         <v>40</v>
       </c>
       <c r="F89" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>356</v>
+        <v>122</v>
       </c>
       <c r="B90" t="s">
         <v>42</v>
@@ -3638,18 +2936,18 @@
         <v>529123.48300000001</v>
       </c>
       <c r="D90" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E90" t="s">
         <v>40</v>
       </c>
       <c r="F90" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>357</v>
+        <v>123</v>
       </c>
       <c r="B91" t="s">
         <v>42</v>
@@ -3658,18 +2956,18 @@
         <v>746297.15100000007</v>
       </c>
       <c r="D91" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E91" t="s">
         <v>40</v>
       </c>
       <c r="F91" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>358</v>
+        <v>124</v>
       </c>
       <c r="B92" t="s">
         <v>42</v>
@@ -3678,18 +2976,18 @@
         <v>161507.40899999999</v>
       </c>
       <c r="D92" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E92" t="s">
         <v>40</v>
       </c>
       <c r="F92" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>359</v>
+        <v>125</v>
       </c>
       <c r="B93" t="s">
         <v>42</v>
@@ -3698,13 +2996,13 @@
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E93" t="s">
         <v>40</v>
       </c>
       <c r="F93" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -3718,18 +3016,18 @@
         <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E94" t="s">
         <v>40</v>
       </c>
       <c r="F94" t="s">
-        <v>135</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>360</v>
+        <v>126</v>
       </c>
       <c r="B95" t="s">
         <v>42</v>
@@ -3738,13 +3036,13 @@
         <v>1043317.606</v>
       </c>
       <c r="D95" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E95" t="s">
         <v>40</v>
       </c>
       <c r="F95" t="s">
-        <v>136</v>
+        <v>39</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -3758,18 +3056,18 @@
         <v>4594.3429999999998</v>
       </c>
       <c r="D96" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E96" t="s">
         <v>40</v>
       </c>
       <c r="F96" t="s">
-        <v>137</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>361</v>
+        <v>127</v>
       </c>
       <c r="B97" t="s">
         <v>42</v>
@@ -3778,18 +3076,18 @@
         <v>81439.744999999995</v>
       </c>
       <c r="D97" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E97" t="s">
         <v>40</v>
       </c>
       <c r="F97" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>362</v>
+        <v>128</v>
       </c>
       <c r="B98" t="s">
         <v>42</v>
@@ -3798,18 +3096,18 @@
         <v>3257903.929</v>
       </c>
       <c r="D98" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E98" t="s">
         <v>40</v>
       </c>
       <c r="F98" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>363</v>
+        <v>129</v>
       </c>
       <c r="B99" t="s">
         <v>42</v>
@@ -3818,18 +3116,18 @@
         <v>9931502.4700000007</v>
       </c>
       <c r="D99" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E99" t="s">
         <v>40</v>
       </c>
       <c r="F99" t="s">
-        <v>140</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>364</v>
+        <v>130</v>
       </c>
       <c r="B100" t="s">
         <v>42</v>
@@ -3838,13 +3136,13 @@
         <v>4942199.926</v>
       </c>
       <c r="D100" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E100" t="s">
         <v>40</v>
       </c>
       <c r="F100" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -3858,18 +3156,18 @@
         <v>5238888.7439999999</v>
       </c>
       <c r="D101" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E101" t="s">
         <v>40</v>
       </c>
       <c r="F101" t="s">
-        <v>142</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>365</v>
+        <v>131</v>
       </c>
       <c r="B102" t="s">
         <v>42</v>
@@ -3878,18 +3176,18 @@
         <v>1572281.9349999998</v>
       </c>
       <c r="D102" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E102" t="s">
         <v>40</v>
       </c>
       <c r="F102" t="s">
-        <v>143</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>366</v>
+        <v>132</v>
       </c>
       <c r="B103" t="s">
         <v>42</v>
@@ -3898,18 +3196,18 @@
         <v>2000282.7500000002</v>
       </c>
       <c r="D103" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E103" t="s">
         <v>40</v>
       </c>
       <c r="F103" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>367</v>
+        <v>133</v>
       </c>
       <c r="B104" t="s">
         <v>42</v>
@@ -3918,18 +3216,18 @@
         <v>120192.96000000001</v>
       </c>
       <c r="D104" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E104" t="s">
         <v>40</v>
       </c>
       <c r="F104" t="s">
-        <v>145</v>
+        <v>39</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>368</v>
+        <v>134</v>
       </c>
       <c r="B105" t="s">
         <v>42</v>
@@ -3938,18 +3236,18 @@
         <v>1532096.0660000001</v>
       </c>
       <c r="D105" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E105" t="s">
         <v>40</v>
       </c>
       <c r="F105" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>369</v>
+        <v>135</v>
       </c>
       <c r="B106" t="s">
         <v>42</v>
@@ -3958,18 +3256,18 @@
         <v>35577.18</v>
       </c>
       <c r="D106" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E106" t="s">
         <v>40</v>
       </c>
       <c r="F106" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>370</v>
+        <v>136</v>
       </c>
       <c r="B107" t="s">
         <v>42</v>
@@ -3978,18 +3276,18 @@
         <v>1639861.8089999999</v>
       </c>
       <c r="D107" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E107" t="s">
         <v>40</v>
       </c>
       <c r="F107" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>371</v>
+        <v>137</v>
       </c>
       <c r="B108" t="s">
         <v>42</v>
@@ -3998,13 +3296,13 @@
         <v>154118.40900000001</v>
       </c>
       <c r="D108" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E108" t="s">
         <v>40</v>
       </c>
       <c r="F108" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -4018,18 +3316,18 @@
         <v>0</v>
       </c>
       <c r="D109" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E109" t="s">
         <v>40</v>
       </c>
       <c r="F109" t="s">
-        <v>150</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>372</v>
+        <v>138</v>
       </c>
       <c r="B110" t="s">
         <v>42</v>
@@ -4038,18 +3336,18 @@
         <v>14746622.970000001</v>
       </c>
       <c r="D110" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E110" t="s">
         <v>40</v>
       </c>
       <c r="F110" t="s">
-        <v>151</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>373</v>
+        <v>139</v>
       </c>
       <c r="B111" t="s">
         <v>42</v>
@@ -4058,18 +3356,18 @@
         <v>4575429.2180000003</v>
       </c>
       <c r="D111" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E111" t="s">
         <v>40</v>
       </c>
       <c r="F111" t="s">
-        <v>152</v>
+        <v>39</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>374</v>
+        <v>140</v>
       </c>
       <c r="B112" t="s">
         <v>42</v>
@@ -4078,18 +3376,18 @@
         <v>0</v>
       </c>
       <c r="D112" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E112" t="s">
         <v>40</v>
       </c>
       <c r="F112" t="s">
-        <v>153</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>375</v>
+        <v>141</v>
       </c>
       <c r="B113" t="s">
         <v>42</v>
@@ -4098,13 +3396,13 @@
         <v>6461.8920000000007</v>
       </c>
       <c r="D113" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E113" t="s">
         <v>40</v>
       </c>
       <c r="F113" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -4118,13 +3416,13 @@
         <v>1286810.0250000001</v>
       </c>
       <c r="D114" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E114" t="s">
         <v>40</v>
       </c>
       <c r="F114" t="s">
-        <v>155</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -4138,18 +3436,18 @@
         <v>1367641.649</v>
       </c>
       <c r="D115" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E115" t="s">
         <v>40</v>
       </c>
       <c r="F115" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
       <c r="B116" t="s">
         <v>42</v>
@@ -4158,18 +3456,18 @@
         <v>355495.79799999995</v>
       </c>
       <c r="D116" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E116" t="s">
         <v>40</v>
       </c>
       <c r="F116" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>377</v>
+        <v>143</v>
       </c>
       <c r="B117" t="s">
         <v>42</v>
@@ -4178,18 +3476,18 @@
         <v>66621.398000000001</v>
       </c>
       <c r="D117" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E117" t="s">
         <v>40</v>
       </c>
       <c r="F117" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>378</v>
+        <v>144</v>
       </c>
       <c r="B118" t="s">
         <v>42</v>
@@ -4198,18 +3496,18 @@
         <v>389047.60200000001</v>
       </c>
       <c r="D118" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E118" t="s">
         <v>40</v>
       </c>
       <c r="F118" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>379</v>
+        <v>145</v>
       </c>
       <c r="B119" t="s">
         <v>42</v>
@@ -4218,18 +3516,18 @@
         <v>443727.68299999996</v>
       </c>
       <c r="D119" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E119" t="s">
         <v>40</v>
       </c>
       <c r="F119" t="s">
-        <v>160</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>380</v>
+        <v>146</v>
       </c>
       <c r="B120" t="s">
         <v>42</v>
@@ -4238,18 +3536,18 @@
         <v>513938.34100000001</v>
       </c>
       <c r="D120" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E120" t="s">
         <v>40</v>
       </c>
       <c r="F120" t="s">
-        <v>161</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>381</v>
+        <v>147</v>
       </c>
       <c r="B121" t="s">
         <v>42</v>
@@ -4258,18 +3556,18 @@
         <v>2026.001</v>
       </c>
       <c r="D121" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E121" t="s">
         <v>40</v>
       </c>
       <c r="F121" t="s">
-        <v>162</v>
+        <v>39</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
       <c r="B122" t="s">
         <v>42</v>
@@ -4278,18 +3576,18 @@
         <v>438941.48500000004</v>
       </c>
       <c r="D122" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E122" t="s">
         <v>40</v>
       </c>
       <c r="F122" t="s">
-        <v>163</v>
+        <v>39</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>383</v>
+        <v>149</v>
       </c>
       <c r="B123" t="s">
         <v>42</v>
@@ -4298,13 +3596,13 @@
         <v>36468.554000000004</v>
       </c>
       <c r="D123" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E123" t="s">
         <v>40</v>
       </c>
       <c r="F123" t="s">
-        <v>164</v>
+        <v>39</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -4318,18 +3616,18 @@
         <v>0</v>
       </c>
       <c r="D124" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E124" t="s">
         <v>40</v>
       </c>
       <c r="F124" t="s">
-        <v>165</v>
+        <v>39</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
       <c r="B125" t="s">
         <v>42</v>
@@ -4338,18 +3636,18 @@
         <v>13928570.130000001</v>
       </c>
       <c r="D125" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E125" t="s">
         <v>40</v>
       </c>
       <c r="F125" t="s">
-        <v>166</v>
+        <v>39</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>385</v>
+        <v>151</v>
       </c>
       <c r="B126" t="s">
         <v>42</v>
@@ -4358,18 +3656,18 @@
         <v>1261140.639</v>
       </c>
       <c r="D126" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E126" t="s">
         <v>40</v>
       </c>
       <c r="F126" t="s">
-        <v>167</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>386</v>
+        <v>152</v>
       </c>
       <c r="B127" t="s">
         <v>42</v>
@@ -4378,18 +3676,18 @@
         <v>761938.38800000004</v>
       </c>
       <c r="D127" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E127" t="s">
         <v>40</v>
       </c>
       <c r="F127" t="s">
-        <v>168</v>
+        <v>39</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>387</v>
+        <v>153</v>
       </c>
       <c r="B128" t="s">
         <v>42</v>
@@ -4398,18 +3696,18 @@
         <v>0</v>
       </c>
       <c r="D128" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E128" t="s">
         <v>40</v>
       </c>
       <c r="F128" t="s">
-        <v>169</v>
+        <v>39</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>388</v>
+        <v>154</v>
       </c>
       <c r="B129" t="s">
         <v>42</v>
@@ -4418,18 +3716,18 @@
         <v>4205698.7299999995</v>
       </c>
       <c r="D129" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E129" t="s">
         <v>40</v>
       </c>
       <c r="F129" t="s">
-        <v>170</v>
+        <v>39</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>389</v>
+        <v>155</v>
       </c>
       <c r="B130" t="s">
         <v>42</v>
@@ -4438,18 +3736,18 @@
         <v>632.34900000000005</v>
       </c>
       <c r="D130" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E130" t="s">
         <v>40</v>
       </c>
       <c r="F130" t="s">
-        <v>171</v>
+        <v>39</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>390</v>
+        <v>156</v>
       </c>
       <c r="B131" t="s">
         <v>42</v>
@@ -4458,18 +3756,18 @@
         <v>0</v>
       </c>
       <c r="D131" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E131" t="s">
         <v>40</v>
       </c>
       <c r="F131" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>391</v>
+        <v>157</v>
       </c>
       <c r="B132" t="s">
         <v>42</v>
@@ -4478,18 +3776,18 @@
         <v>13802.402</v>
       </c>
       <c r="D132" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E132" t="s">
         <v>40</v>
       </c>
       <c r="F132" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>392</v>
+        <v>158</v>
       </c>
       <c r="B133" t="s">
         <v>42</v>
@@ -4498,18 +3796,18 @@
         <v>1293089.1669999999</v>
       </c>
       <c r="D133" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E133" t="s">
         <v>40</v>
       </c>
       <c r="F133" t="s">
-        <v>174</v>
+        <v>39</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>393</v>
+        <v>159</v>
       </c>
       <c r="B134" t="s">
         <v>42</v>
@@ -4518,18 +3816,18 @@
         <v>29552.380999999998</v>
       </c>
       <c r="D134" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E134" t="s">
         <v>40</v>
       </c>
       <c r="F134" t="s">
-        <v>175</v>
+        <v>39</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>394</v>
+        <v>160</v>
       </c>
       <c r="B135" t="s">
         <v>42</v>
@@ -4538,18 +3836,18 @@
         <v>1176.9289999999999</v>
       </c>
       <c r="D135" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E135" t="s">
         <v>40</v>
       </c>
       <c r="F135" t="s">
-        <v>176</v>
+        <v>39</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>395</v>
+        <v>161</v>
       </c>
       <c r="B136" t="s">
         <v>42</v>
@@ -4558,13 +3856,13 @@
         <v>22284147.539999999</v>
       </c>
       <c r="D136" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E136" t="s">
         <v>40</v>
       </c>
       <c r="F136" t="s">
-        <v>177</v>
+        <v>39</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -4578,18 +3876,18 @@
         <v>0</v>
       </c>
       <c r="D137" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E137" t="s">
         <v>40</v>
       </c>
       <c r="F137" t="s">
-        <v>178</v>
+        <v>39</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>396</v>
+        <v>162</v>
       </c>
       <c r="B138" t="s">
         <v>42</v>
@@ -4598,18 +3896,18 @@
         <v>27578.420999999998</v>
       </c>
       <c r="D138" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E138" t="s">
         <v>40</v>
       </c>
       <c r="F138" t="s">
-        <v>179</v>
+        <v>39</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>397</v>
+        <v>163</v>
       </c>
       <c r="B139" t="s">
         <v>42</v>
@@ -4618,18 +3916,18 @@
         <v>8.7600000000000016</v>
       </c>
       <c r="D139" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E139" t="s">
         <v>40</v>
       </c>
       <c r="F139" t="s">
-        <v>180</v>
+        <v>39</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>398</v>
+        <v>164</v>
       </c>
       <c r="B140" t="s">
         <v>42</v>
@@ -4638,18 +3936,18 @@
         <v>6843684.1540000001</v>
       </c>
       <c r="D140" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E140" t="s">
         <v>40</v>
       </c>
       <c r="F140" t="s">
-        <v>181</v>
+        <v>39</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>399</v>
+        <v>165</v>
       </c>
       <c r="B141" t="s">
         <v>42</v>
@@ -4658,18 +3956,18 @@
         <v>1331.5359999999998</v>
       </c>
       <c r="D141" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E141" t="s">
         <v>40</v>
       </c>
       <c r="F141" t="s">
-        <v>182</v>
+        <v>39</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>400</v>
+        <v>166</v>
       </c>
       <c r="B142" t="s">
         <v>42</v>
@@ -4678,18 +3976,18 @@
         <v>928460.32900000003</v>
       </c>
       <c r="D142" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E142" t="s">
         <v>40</v>
       </c>
       <c r="F142" t="s">
-        <v>183</v>
+        <v>39</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>401</v>
+        <v>167</v>
       </c>
       <c r="B143" t="s">
         <v>42</v>
@@ -4698,18 +3996,18 @@
         <v>8596040.7540000007</v>
       </c>
       <c r="D143" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E143" t="s">
         <v>40</v>
       </c>
       <c r="F143" t="s">
-        <v>184</v>
+        <v>39</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>402</v>
+        <v>168</v>
       </c>
       <c r="B144" t="s">
         <v>42</v>
@@ -4718,18 +4016,18 @@
         <v>4137879.3610000005</v>
       </c>
       <c r="D144" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E144" t="s">
         <v>40</v>
       </c>
       <c r="F144" t="s">
-        <v>185</v>
+        <v>39</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>403</v>
+        <v>169</v>
       </c>
       <c r="B145" t="s">
         <v>42</v>
@@ -4738,18 +4036,18 @@
         <v>9204901.3969999999</v>
       </c>
       <c r="D145" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E145" t="s">
         <v>40</v>
       </c>
       <c r="F145" t="s">
-        <v>186</v>
+        <v>39</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>404</v>
+        <v>170</v>
       </c>
       <c r="B146" t="s">
         <v>42</v>
@@ -4758,18 +4056,18 @@
         <v>0</v>
       </c>
       <c r="D146" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E146" t="s">
         <v>40</v>
       </c>
       <c r="F146" t="s">
-        <v>187</v>
+        <v>39</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>405</v>
+        <v>171</v>
       </c>
       <c r="B147" t="s">
         <v>42</v>
@@ -4778,18 +4076,18 @@
         <v>1400683.2789999999</v>
       </c>
       <c r="D147" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E147" t="s">
         <v>40</v>
       </c>
       <c r="F147" t="s">
-        <v>188</v>
+        <v>39</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>406</v>
+        <v>172</v>
       </c>
       <c r="B148" t="s">
         <v>42</v>
@@ -4798,18 +4096,18 @@
         <v>189014.66899999999</v>
       </c>
       <c r="D148" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E148" t="s">
         <v>40</v>
       </c>
       <c r="F148" t="s">
-        <v>189</v>
+        <v>39</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>407</v>
+        <v>173</v>
       </c>
       <c r="B149" t="s">
         <v>42</v>
@@ -4818,18 +4116,18 @@
         <v>6575.607</v>
       </c>
       <c r="D149" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E149" t="s">
         <v>40</v>
       </c>
       <c r="F149" t="s">
-        <v>190</v>
+        <v>39</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>408</v>
+        <v>174</v>
       </c>
       <c r="B150" t="s">
         <v>42</v>
@@ -4838,18 +4136,18 @@
         <v>182173.511</v>
       </c>
       <c r="D150" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E150" t="s">
         <v>40</v>
       </c>
       <c r="F150" t="s">
-        <v>191</v>
+        <v>39</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>409</v>
+        <v>175</v>
       </c>
       <c r="B151" t="s">
         <v>42</v>
@@ -4858,18 +4156,18 @@
         <v>2450991.7719999999</v>
       </c>
       <c r="D151" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E151" t="s">
         <v>40</v>
       </c>
       <c r="F151" t="s">
-        <v>192</v>
+        <v>39</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>410</v>
+        <v>176</v>
       </c>
       <c r="B152" t="s">
         <v>42</v>
@@ -4878,18 +4176,18 @@
         <v>856056.41399999999</v>
       </c>
       <c r="D152" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E152" t="s">
         <v>40</v>
       </c>
       <c r="F152" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>411</v>
+        <v>177</v>
       </c>
       <c r="B153" t="s">
         <v>42</v>
@@ -4898,18 +4196,18 @@
         <v>2258860.963</v>
       </c>
       <c r="D153" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E153" t="s">
         <v>40</v>
       </c>
       <c r="F153" t="s">
-        <v>194</v>
+        <v>39</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>412</v>
+        <v>178</v>
       </c>
       <c r="B154" t="s">
         <v>42</v>
@@ -4918,18 +4216,18 @@
         <v>8416618.4410000015</v>
       </c>
       <c r="D154" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E154" t="s">
         <v>40</v>
       </c>
       <c r="F154" t="s">
-        <v>195</v>
+        <v>39</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>413</v>
+        <v>179</v>
       </c>
       <c r="B155" t="s">
         <v>42</v>
@@ -4938,18 +4236,18 @@
         <v>564.68499999999995</v>
       </c>
       <c r="D155" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E155" t="s">
         <v>40</v>
       </c>
       <c r="F155" t="s">
-        <v>196</v>
+        <v>39</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>414</v>
+        <v>180</v>
       </c>
       <c r="B156" t="s">
         <v>42</v>
@@ -4958,13 +4256,13 @@
         <v>516.92999999999995</v>
       </c>
       <c r="D156" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E156" t="s">
         <v>40</v>
       </c>
       <c r="F156" t="s">
-        <v>197</v>
+        <v>39</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -4978,18 +4276,18 @@
         <v>3901804.5929999999</v>
       </c>
       <c r="D157" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E157" t="s">
         <v>40</v>
       </c>
       <c r="F157" t="s">
-        <v>198</v>
+        <v>39</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="B158" t="s">
         <v>42</v>
@@ -4998,18 +4296,18 @@
         <v>2610.9850000000001</v>
       </c>
       <c r="D158" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E158" t="s">
         <v>40</v>
       </c>
       <c r="F158" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>416</v>
+        <v>182</v>
       </c>
       <c r="B159" t="s">
         <v>42</v>
@@ -5018,18 +4316,18 @@
         <v>5419104.6490000002</v>
       </c>
       <c r="D159" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E159" t="s">
         <v>40</v>
       </c>
       <c r="F159" t="s">
-        <v>200</v>
+        <v>39</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>417</v>
+        <v>183</v>
       </c>
       <c r="B160" t="s">
         <v>42</v>
@@ -5038,18 +4336,18 @@
         <v>166814.72999999998</v>
       </c>
       <c r="D160" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E160" t="s">
         <v>40</v>
       </c>
       <c r="F160" t="s">
-        <v>201</v>
+        <v>39</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>418</v>
+        <v>184</v>
       </c>
       <c r="B161" t="s">
         <v>42</v>
@@ -5058,18 +4356,18 @@
         <v>2780664.3929999997</v>
       </c>
       <c r="D161" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E161" t="s">
         <v>40</v>
       </c>
       <c r="F161" t="s">
-        <v>202</v>
+        <v>39</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>419</v>
+        <v>185</v>
       </c>
       <c r="B162" t="s">
         <v>42</v>
@@ -5078,18 +4376,18 @@
         <v>693.49099999999999</v>
       </c>
       <c r="D162" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E162" t="s">
         <v>40</v>
       </c>
       <c r="F162" t="s">
-        <v>203</v>
+        <v>39</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>420</v>
+        <v>186</v>
       </c>
       <c r="B163" t="s">
         <v>42</v>
@@ -5098,18 +4396,18 @@
         <v>717733.71299999999</v>
       </c>
       <c r="D163" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E163" t="s">
         <v>40</v>
       </c>
       <c r="F163" t="s">
-        <v>204</v>
+        <v>39</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>421</v>
+        <v>187</v>
       </c>
       <c r="B164" t="s">
         <v>42</v>
@@ -5118,18 +4416,18 @@
         <v>1145975.412</v>
       </c>
       <c r="D164" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E164" t="s">
         <v>40</v>
       </c>
       <c r="F164" t="s">
-        <v>205</v>
+        <v>39</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>422</v>
+        <v>188</v>
       </c>
       <c r="B165" t="s">
         <v>42</v>
@@ -5138,18 +4436,18 @@
         <v>5848737.4900000002</v>
       </c>
       <c r="D165" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E165" t="s">
         <v>40</v>
       </c>
       <c r="F165" t="s">
-        <v>206</v>
+        <v>39</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>423</v>
+        <v>189</v>
       </c>
       <c r="B166" t="s">
         <v>42</v>
@@ -5158,18 +4456,18 @@
         <v>5519971.2609999999</v>
       </c>
       <c r="D166" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E166" t="s">
         <v>40</v>
       </c>
       <c r="F166" t="s">
-        <v>207</v>
+        <v>39</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>424</v>
+        <v>190</v>
       </c>
       <c r="B167" t="s">
         <v>42</v>
@@ -5178,13 +4476,13 @@
         <v>1152875.0020000001</v>
       </c>
       <c r="D167" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E167" t="s">
         <v>40</v>
       </c>
       <c r="F167" t="s">
-        <v>208</v>
+        <v>39</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -5198,18 +4496,18 @@
         <v>0</v>
       </c>
       <c r="D168" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E168" t="s">
         <v>40</v>
       </c>
       <c r="F168" t="s">
-        <v>209</v>
+        <v>39</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>425</v>
+        <v>191</v>
       </c>
       <c r="B169" t="s">
         <v>42</v>
@@ -5218,18 +4516,18 @@
         <v>1862215.0799999998</v>
       </c>
       <c r="D169" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E169" t="s">
         <v>40</v>
       </c>
       <c r="F169" t="s">
-        <v>210</v>
+        <v>39</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>426</v>
+        <v>192</v>
       </c>
       <c r="B170" t="s">
         <v>42</v>
@@ -5238,18 +4536,18 @@
         <v>916973.93299999996</v>
       </c>
       <c r="D170" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E170" t="s">
         <v>40</v>
       </c>
       <c r="F170" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>427</v>
+        <v>193</v>
       </c>
       <c r="B171" t="s">
         <v>42</v>
@@ -5258,18 +4556,18 @@
         <v>59556.464</v>
       </c>
       <c r="D171" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E171" t="s">
         <v>40</v>
       </c>
       <c r="F171" t="s">
-        <v>212</v>
+        <v>39</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>428</v>
+        <v>194</v>
       </c>
       <c r="B172" t="s">
         <v>42</v>
@@ -5278,13 +4576,13 @@
         <v>3385.7710000000002</v>
       </c>
       <c r="D172" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E172" t="s">
         <v>40</v>
       </c>
       <c r="F172" t="s">
-        <v>213</v>
+        <v>39</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -5298,18 +4596,18 @@
         <v>43984.600999999995</v>
       </c>
       <c r="D173" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E173" t="s">
         <v>40</v>
       </c>
       <c r="F173" t="s">
-        <v>214</v>
+        <v>39</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>429</v>
+        <v>195</v>
       </c>
       <c r="B174" t="s">
         <v>42</v>
@@ -5318,13 +4616,13 @@
         <v>876267.80299999996</v>
       </c>
       <c r="D174" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E174" t="s">
         <v>40</v>
       </c>
       <c r="F174" t="s">
-        <v>215</v>
+        <v>39</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -5338,18 +4636,18 @@
         <v>150618199.09999999</v>
       </c>
       <c r="D175" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E175" t="s">
         <v>40</v>
       </c>
       <c r="F175" t="s">
-        <v>216</v>
+        <v>39</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>430</v>
+        <v>196</v>
       </c>
       <c r="B176" t="s">
         <v>42</v>
@@ -5358,13 +4656,13 @@
         <v>179082.345</v>
       </c>
       <c r="D176" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E176" t="s">
         <v>40</v>
       </c>
       <c r="F176" t="s">
-        <v>217</v>
+        <v>39</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -5378,13 +4676,13 @@
         <v>795.91300000000001</v>
       </c>
       <c r="D177" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E177" t="s">
         <v>40</v>
       </c>
       <c r="F177" t="s">
-        <v>218</v>
+        <v>39</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -5398,13 +4696,13 @@
         <v>1202.778</v>
       </c>
       <c r="D178" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E178" t="s">
         <v>40</v>
       </c>
       <c r="F178" t="s">
-        <v>219</v>
+        <v>39</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -5418,18 +4716,18 @@
         <v>1947.3340000000001</v>
       </c>
       <c r="D179" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E179" t="s">
         <v>40</v>
       </c>
       <c r="F179" t="s">
-        <v>220</v>
+        <v>39</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>431</v>
+        <v>197</v>
       </c>
       <c r="B180" t="s">
         <v>42</v>
@@ -5438,13 +4736,13 @@
         <v>4405.1729999999998</v>
       </c>
       <c r="D180" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E180" t="s">
         <v>40</v>
       </c>
       <c r="F180" t="s">
-        <v>221</v>
+        <v>39</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -5458,18 +4756,18 @@
         <v>2661.4659999999999</v>
       </c>
       <c r="D181" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E181" t="s">
         <v>40</v>
       </c>
       <c r="F181" t="s">
-        <v>222</v>
+        <v>39</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>432</v>
+        <v>198</v>
       </c>
       <c r="B182" t="s">
         <v>42</v>
@@ -5478,13 +4776,13 @@
         <v>110656.485</v>
       </c>
       <c r="D182" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E182" t="s">
         <v>40</v>
       </c>
       <c r="F182" t="s">
-        <v>223</v>
+        <v>39</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -5498,18 +4796,18 @@
         <v>47962.805999999997</v>
       </c>
       <c r="D183" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E183" t="s">
         <v>40</v>
       </c>
       <c r="F183" t="s">
-        <v>224</v>
+        <v>39</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>433</v>
+        <v>199</v>
       </c>
       <c r="B184" t="s">
         <v>42</v>
@@ -5518,18 +4816,18 @@
         <v>907617.31799999997</v>
       </c>
       <c r="D184" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E184" t="s">
         <v>40</v>
       </c>
       <c r="F184" t="s">
-        <v>225</v>
+        <v>39</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>434</v>
+        <v>200</v>
       </c>
       <c r="B185" t="s">
         <v>42</v>
@@ -5538,18 +4836,18 @@
         <v>1800002.6360000002</v>
       </c>
       <c r="D185" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E185" t="s">
         <v>40</v>
       </c>
       <c r="F185" t="s">
-        <v>226</v>
+        <v>39</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>435</v>
+        <v>201</v>
       </c>
       <c r="B186" t="s">
         <v>42</v>
@@ -5558,18 +4856,18 @@
         <v>3786.6489999999999</v>
       </c>
       <c r="D186" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E186" t="s">
         <v>40</v>
       </c>
       <c r="F186" t="s">
-        <v>227</v>
+        <v>39</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>436</v>
+        <v>202</v>
       </c>
       <c r="B187" t="s">
         <v>42</v>
@@ -5578,18 +4876,18 @@
         <v>800683.25</v>
       </c>
       <c r="D187" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E187" t="s">
         <v>40</v>
       </c>
       <c r="F187" t="s">
-        <v>228</v>
+        <v>39</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>437</v>
+        <v>203</v>
       </c>
       <c r="B188" t="s">
         <v>42</v>
@@ -5598,13 +4896,13 @@
         <v>1417.31</v>
       </c>
       <c r="D188" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E188" t="s">
         <v>40</v>
       </c>
       <c r="F188" t="s">
-        <v>229</v>
+        <v>39</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -5618,18 +4916,18 @@
         <v>267346.163</v>
       </c>
       <c r="D189" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E189" t="s">
         <v>40</v>
       </c>
       <c r="F189" t="s">
-        <v>230</v>
+        <v>39</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>438</v>
+        <v>204</v>
       </c>
       <c r="B190" t="s">
         <v>42</v>
@@ -5638,18 +4936,18 @@
         <v>188112.228</v>
       </c>
       <c r="D190" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E190" t="s">
         <v>40</v>
       </c>
       <c r="F190" t="s">
-        <v>231</v>
+        <v>39</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>439</v>
+        <v>205</v>
       </c>
       <c r="B191" t="s">
         <v>42</v>
@@ -5658,18 +4956,18 @@
         <v>39873.019</v>
       </c>
       <c r="D191" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E191" t="s">
         <v>40</v>
       </c>
       <c r="F191" t="s">
-        <v>232</v>
+        <v>39</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>440</v>
+        <v>206</v>
       </c>
       <c r="B192" t="s">
         <v>42</v>
@@ -5678,18 +4976,18 @@
         <v>2803970.5549999997</v>
       </c>
       <c r="D192" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E192" t="s">
         <v>40</v>
       </c>
       <c r="F192" t="s">
-        <v>233</v>
+        <v>39</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>441</v>
+        <v>207</v>
       </c>
       <c r="B193" t="s">
         <v>42</v>
@@ -5698,18 +4996,18 @@
         <v>8372258.7359999996</v>
       </c>
       <c r="D193" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E193" t="s">
         <v>40</v>
       </c>
       <c r="F193" t="s">
-        <v>234</v>
+        <v>39</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>442</v>
+        <v>208</v>
       </c>
       <c r="B194" t="s">
         <v>42</v>
@@ -5718,13 +5016,13 @@
         <v>26607.845000000001</v>
       </c>
       <c r="D194" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E194" t="s">
         <v>40</v>
       </c>
       <c r="F194" t="s">
-        <v>235</v>
+        <v>39</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -5738,18 +5036,18 @@
         <v>1950008.202</v>
       </c>
       <c r="D195" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E195" t="s">
         <v>40</v>
       </c>
       <c r="F195" t="s">
-        <v>236</v>
+        <v>39</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>443</v>
+        <v>209</v>
       </c>
       <c r="B196" t="s">
         <v>42</v>
@@ -5758,18 +5056,18 @@
         <v>3099383.9819999998</v>
       </c>
       <c r="D196" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E196" t="s">
         <v>40</v>
       </c>
       <c r="F196" t="s">
-        <v>237</v>
+        <v>39</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>444</v>
+        <v>210</v>
       </c>
       <c r="B197" t="s">
         <v>42</v>
@@ -5778,18 +5076,18 @@
         <v>933464.54599999997</v>
       </c>
       <c r="D197" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E197" t="s">
         <v>40</v>
       </c>
       <c r="F197" t="s">
-        <v>238</v>
+        <v>39</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>445</v>
+        <v>211</v>
       </c>
       <c r="B198" t="s">
         <v>42</v>
@@ -5798,18 +5096,18 @@
         <v>8803726.2340000011</v>
       </c>
       <c r="D198" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E198" t="s">
         <v>40</v>
       </c>
       <c r="F198" t="s">
-        <v>239</v>
+        <v>39</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>446</v>
+        <v>212</v>
       </c>
       <c r="B199" t="s">
         <v>42</v>
@@ -5818,13 +5116,13 @@
         <v>281890.90600000002</v>
       </c>
       <c r="D199" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E199" t="s">
         <v>40</v>
       </c>
       <c r="F199" t="s">
-        <v>240</v>
+        <v>39</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -5838,18 +5136,18 @@
         <v>215821.15900000001</v>
       </c>
       <c r="D200" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E200" t="s">
         <v>40</v>
       </c>
       <c r="F200" t="s">
-        <v>241</v>
+        <v>39</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>447</v>
+        <v>213</v>
       </c>
       <c r="B201" t="s">
         <v>42</v>
@@ -5858,18 +5156,18 @@
         <v>143304.796</v>
       </c>
       <c r="D201" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E201" t="s">
         <v>40</v>
       </c>
       <c r="F201" t="s">
-        <v>242</v>
+        <v>39</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>448</v>
+        <v>214</v>
       </c>
       <c r="B202" t="s">
         <v>42</v>
@@ -5878,18 +5176,18 @@
         <v>5701163.4759999998</v>
       </c>
       <c r="D202" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E202" t="s">
         <v>40</v>
       </c>
       <c r="F202" t="s">
-        <v>243</v>
+        <v>39</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>449</v>
+        <v>215</v>
       </c>
       <c r="B203" t="s">
         <v>42</v>
@@ -5898,13 +5196,13 @@
         <v>728167.53300000005</v>
       </c>
       <c r="D203" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E203" t="s">
         <v>40</v>
       </c>
       <c r="F203" t="s">
-        <v>244</v>
+        <v>39</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -5918,13 +5216,13 @@
         <v>791035.74899999995</v>
       </c>
       <c r="D204" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E204" t="s">
         <v>40</v>
       </c>
       <c r="F204" t="s">
-        <v>245</v>
+        <v>39</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -5938,18 +5236,18 @@
         <v>190455.77100000001</v>
       </c>
       <c r="D205" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E205" t="s">
         <v>40</v>
       </c>
       <c r="F205" t="s">
-        <v>246</v>
+        <v>39</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>450</v>
+        <v>216</v>
       </c>
       <c r="B206" t="s">
         <v>42</v>
@@ -5958,18 +5256,18 @@
         <v>568458.55300000007</v>
       </c>
       <c r="D206" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E206" t="s">
         <v>40</v>
       </c>
       <c r="F206" t="s">
-        <v>247</v>
+        <v>39</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>451</v>
+        <v>217</v>
       </c>
       <c r="B207" t="s">
         <v>42</v>
@@ -5978,18 +5276,18 @@
         <v>7160113.9509999994</v>
       </c>
       <c r="D207" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E207" t="s">
         <v>40</v>
       </c>
       <c r="F207" t="s">
-        <v>248</v>
+        <v>39</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>452</v>
+        <v>218</v>
       </c>
       <c r="B208" t="s">
         <v>42</v>
@@ -5998,13 +5296,13 @@
         <v>3064850.6030000001</v>
       </c>
       <c r="D208" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E208" t="s">
         <v>40</v>
       </c>
       <c r="F208" t="s">
-        <v>249</v>
+        <v>39</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -6018,13 +5316,13 @@
         <v>100760.478</v>
       </c>
       <c r="D209" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E209" t="s">
         <v>40</v>
       </c>
       <c r="F209" t="s">
-        <v>250</v>
+        <v>39</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -6038,18 +5336,18 @@
         <v>111042.70600000001</v>
       </c>
       <c r="D210" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E210" t="s">
         <v>40</v>
       </c>
       <c r="F210" t="s">
-        <v>251</v>
+        <v>39</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>453</v>
+        <v>219</v>
       </c>
       <c r="B211" t="s">
         <v>42</v>
@@ -6058,18 +5356,18 @@
         <v>918278.80299999996</v>
       </c>
       <c r="D211" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E211" t="s">
         <v>40</v>
       </c>
       <c r="F211" t="s">
-        <v>252</v>
+        <v>39</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>454</v>
+        <v>220</v>
       </c>
       <c r="B212" t="s">
         <v>42</v>
@@ -6078,18 +5376,18 @@
         <v>5460.9389999999994</v>
       </c>
       <c r="D212" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E212" t="s">
         <v>40</v>
       </c>
       <c r="F212" t="s">
-        <v>253</v>
+        <v>39</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>455</v>
+        <v>221</v>
       </c>
       <c r="B213" t="s">
         <v>42</v>
@@ -6098,18 +5396,18 @@
         <v>42915.014999999999</v>
       </c>
       <c r="D213" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E213" t="s">
         <v>40</v>
       </c>
       <c r="F213" t="s">
-        <v>254</v>
+        <v>39</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>456</v>
+        <v>222</v>
       </c>
       <c r="B214" t="s">
         <v>42</v>
@@ -6118,18 +5416,18 @@
         <v>374215.26</v>
       </c>
       <c r="D214" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E214" t="s">
         <v>40</v>
       </c>
       <c r="F214" t="s">
-        <v>255</v>
+        <v>39</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>457</v>
+        <v>223</v>
       </c>
       <c r="B215" t="s">
         <v>42</v>
@@ -6138,18 +5436,18 @@
         <v>5340984.9960000003</v>
       </c>
       <c r="D215" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E215" t="s">
         <v>40</v>
       </c>
       <c r="F215" t="s">
-        <v>256</v>
+        <v>39</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>458</v>
+        <v>224</v>
       </c>
       <c r="B216" t="s">
         <v>42</v>
@@ -6158,13 +5456,13 @@
         <v>1024461.818</v>
       </c>
       <c r="D216" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E216" t="s">
         <v>40</v>
       </c>
       <c r="F216" t="s">
-        <v>257</v>
+        <v>39</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -6178,18 +5476,18 @@
         <v>1563.69</v>
       </c>
       <c r="D217" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E217" t="s">
         <v>40</v>
       </c>
       <c r="F217" t="s">
-        <v>258</v>
+        <v>39</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>459</v>
+        <v>225</v>
       </c>
       <c r="B218" t="s">
         <v>42</v>
@@ -6198,18 +5496,18 @@
         <v>9.74</v>
       </c>
       <c r="D218" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E218" t="s">
         <v>40</v>
       </c>
       <c r="F218" t="s">
-        <v>259</v>
+        <v>39</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>460</v>
+        <v>226</v>
       </c>
       <c r="B219" t="s">
         <v>42</v>
@@ -6218,18 +5516,18 @@
         <v>429292.03899999999</v>
       </c>
       <c r="D219" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E219" t="s">
         <v>40</v>
       </c>
       <c r="F219" t="s">
-        <v>260</v>
+        <v>39</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>461</v>
+        <v>227</v>
       </c>
       <c r="B220" t="s">
         <v>42</v>
@@ -6238,18 +5536,18 @@
         <v>1219252.6459999999</v>
       </c>
       <c r="D220" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E220" t="s">
         <v>40</v>
       </c>
       <c r="F220" t="s">
-        <v>261</v>
+        <v>39</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>462</v>
+        <v>228</v>
       </c>
       <c r="B221" t="s">
         <v>42</v>
@@ -6258,18 +5556,18 @@
         <v>87295.183999999994</v>
       </c>
       <c r="D221" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E221" t="s">
         <v>40</v>
       </c>
       <c r="F221" t="s">
-        <v>262</v>
+        <v>39</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>463</v>
+        <v>229</v>
       </c>
       <c r="B222" t="s">
         <v>42</v>
@@ -6278,18 +5576,18 @@
         <v>4685712.6169999996</v>
       </c>
       <c r="D222" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E222" t="s">
         <v>40</v>
       </c>
       <c r="F222" t="s">
-        <v>263</v>
+        <v>39</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>464</v>
+        <v>230</v>
       </c>
       <c r="B223" t="s">
         <v>42</v>
@@ -6298,18 +5596,18 @@
         <v>103494251.59999999</v>
       </c>
       <c r="D223" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E223" t="s">
         <v>40</v>
       </c>
       <c r="F223" t="s">
-        <v>264</v>
+        <v>39</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>465</v>
+        <v>231</v>
       </c>
       <c r="B224" t="s">
         <v>42</v>
@@ -6318,18 +5616,18 @@
         <v>618955.799</v>
       </c>
       <c r="D224" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E224" t="s">
         <v>40</v>
       </c>
       <c r="F224" t="s">
-        <v>265</v>
+        <v>39</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>466</v>
+        <v>232</v>
       </c>
       <c r="B225" t="s">
         <v>42</v>
@@ -6338,18 +5636,18 @@
         <v>1177727.3630000001</v>
       </c>
       <c r="D225" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E225" t="s">
         <v>40</v>
       </c>
       <c r="F225" t="s">
-        <v>266</v>
+        <v>39</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>467</v>
+        <v>233</v>
       </c>
       <c r="B226" t="s">
         <v>42</v>
@@ -6358,13 +5656,13 @@
         <v>24204.381000000001</v>
       </c>
       <c r="D226" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E226" t="s">
         <v>40</v>
       </c>
       <c r="F226" t="s">
-        <v>267</v>
+        <v>39</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
@@ -6378,18 +5676,18 @@
         <v>6975530.1850000005</v>
       </c>
       <c r="D227" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E227" t="s">
         <v>40</v>
       </c>
       <c r="F227" t="s">
-        <v>268</v>
+        <v>39</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>468</v>
+        <v>234</v>
       </c>
       <c r="B228" t="s">
         <v>42</v>
@@ -6398,13 +5696,13 @@
         <v>3122845.0520000001</v>
       </c>
       <c r="D228" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E228" t="s">
         <v>40</v>
       </c>
       <c r="F228" t="s">
-        <v>269</v>
+        <v>39</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -6418,13 +5716,13 @@
         <v>588.976</v>
       </c>
       <c r="D229" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E229" t="s">
         <v>40</v>
       </c>
       <c r="F229" t="s">
-        <v>270</v>
+        <v>39</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -6438,18 +5736,18 @@
         <v>0</v>
       </c>
       <c r="D230" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E230" t="s">
         <v>40</v>
       </c>
       <c r="F230" t="s">
-        <v>271</v>
+        <v>39</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>469</v>
+        <v>235</v>
       </c>
       <c r="B231" t="s">
         <v>42</v>
@@ -6458,18 +5756,18 @@
         <v>483.43799999999999</v>
       </c>
       <c r="D231" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E231" t="s">
         <v>40</v>
       </c>
       <c r="F231" t="s">
-        <v>272</v>
+        <v>39</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>470</v>
+        <v>236</v>
       </c>
       <c r="B232" t="s">
         <v>42</v>
@@ -6478,13 +5776,13 @@
         <v>16094.146000000001</v>
       </c>
       <c r="D232" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E232" t="s">
         <v>40</v>
       </c>
       <c r="F232" t="s">
-        <v>273</v>
+        <v>39</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
@@ -6498,13 +5796,13 @@
         <v>889426.87300000002</v>
       </c>
       <c r="D233" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E233" t="s">
         <v>40</v>
       </c>
       <c r="F233" t="s">
-        <v>274</v>
+        <v>39</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -6518,18 +5816,18 @@
         <v>684440.72400000005</v>
       </c>
       <c r="D234" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E234" t="s">
         <v>40</v>
       </c>
       <c r="F234" t="s">
-        <v>275</v>
+        <v>39</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>471</v>
+        <v>237</v>
       </c>
       <c r="B235" t="s">
         <v>42</v>
@@ -6538,18 +5836,18 @@
         <v>10804289.029999999</v>
       </c>
       <c r="D235" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E235" t="s">
         <v>40</v>
       </c>
       <c r="F235" t="s">
-        <v>276</v>
+        <v>39</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>472</v>
+        <v>238</v>
       </c>
       <c r="B236" t="s">
         <v>42</v>
@@ -6558,13 +5856,13 @@
         <v>7021692.1120000007</v>
       </c>
       <c r="D236" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="E236" t="s">
         <v>40</v>
       </c>
       <c r="F236" t="s">
-        <v>277</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/Bastinetal_potential.xlsx
+++ b/data/input/Bastinetal_potential.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide Cozza\Documents\GitHub\FOLUR-Restoration-maps\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB6556E-F888-478E-A34C-6CB9739B2754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1417F502-79AA-49CA-94CC-67DC18EDCCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{148597CD-38FE-4736-937D-463902385378}"/>
   </bookViews>
@@ -158,9 +158,6 @@
     <t>Bastinetal_2019</t>
   </si>
   <si>
-    <t>Global tree cover (potential, hectares)</t>
-  </si>
-  <si>
     <t>Variable</t>
   </si>
   <si>
@@ -759,6 +756,9 @@
   </si>
   <si>
     <t>ha</t>
+  </si>
+  <si>
+    <t>Global tree cover (potential)</t>
   </si>
 </sst>
 </file>
@@ -821,7 +821,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FC73A25-E7BE-4BB0-85BF-9C9779E8379C}" name="Table3" displayName="Table3" ref="A1:F236" totalsRowShown="0">
-  <autoFilter ref="A1:F236" xr:uid="{46E06165-E532-4CAC-B6C1-45A017C9FB6C}"/>
+  <autoFilter ref="A1:F236" xr:uid="{8FC73A25-E7BE-4BB0-85BF-9C9779E8379C}"/>
   <tableColumns count="6">
     <tableColumn id="10" xr3:uid="{CCDCC1CD-F525-42BB-B7F0-15E65925AEDA}" name="iso3"/>
     <tableColumn id="8" xr3:uid="{57484AD8-4E52-474A-9B1F-B0E14C18D786}" name="Variable"/>
@@ -1133,15 +1133,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAEB45E-6932-4D6B-99E4-B15F3F1D9E2F}">
   <dimension ref="A1:F236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="41.44140625" customWidth="1"/>
     <col min="3" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="5" max="5" width="34.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1150,16 +1150,16 @@
         <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
       </c>
       <c r="F1" t="s">
         <v>38</v>
@@ -1167,19 +1167,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>2947728.8310000002</v>
       </c>
       <c r="D2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -1187,19 +1187,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>203966.91500000001</v>
       </c>
       <c r="D3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -1207,19 +1207,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>859173.41</v>
       </c>
       <c r="D4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1227,19 +1227,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>4936.366</v>
       </c>
       <c r="D5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1247,19 +1247,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>716.46800000000007</v>
       </c>
       <c r="D6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F6" t="s">
         <v>39</v>
@@ -1267,19 +1267,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>13635862.530000001</v>
       </c>
       <c r="D7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
@@ -1287,19 +1287,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>811.63700000000006</v>
       </c>
       <c r="D8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F8" t="s">
         <v>39</v>
@@ -1307,19 +1307,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>1129.5640000000001</v>
       </c>
       <c r="D9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F9" t="s">
         <v>39</v>
@@ -1327,19 +1327,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>19683003.939999998</v>
       </c>
       <c r="D10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F10" t="s">
         <v>39</v>
@@ -1347,19 +1347,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>164285.56200000001</v>
       </c>
       <c r="D11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F11" t="s">
         <v>39</v>
@@ -1367,19 +1367,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12">
         <v>868.64099999999996</v>
       </c>
       <c r="D12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F12" t="s">
         <v>39</v>
@@ -1387,19 +1387,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13">
         <v>57960579.729999997</v>
       </c>
       <c r="D13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F13" t="s">
         <v>39</v>
@@ -1407,19 +1407,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14">
         <v>781613.15099999995</v>
       </c>
       <c r="D14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -1427,19 +1427,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15">
         <v>460080.239</v>
       </c>
       <c r="D15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F15" t="s">
         <v>39</v>
@@ -1447,19 +1447,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16">
         <v>390.31400000000002</v>
       </c>
       <c r="D16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F16" t="s">
         <v>39</v>
@@ -1467,19 +1467,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17">
         <v>501104.02799999999</v>
       </c>
       <c r="D17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -1487,19 +1487,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18">
         <v>5628.7869999999994</v>
       </c>
       <c r="D18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F18" t="s">
         <v>39</v>
@@ -1507,19 +1507,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19">
         <v>1651630.2119999998</v>
       </c>
       <c r="D19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F19" t="s">
         <v>39</v>
@@ -1527,19 +1527,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20">
         <v>282458.728</v>
       </c>
       <c r="D20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F20" t="s">
         <v>39</v>
@@ -1547,19 +1547,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21">
         <v>146971.01400000002</v>
       </c>
       <c r="D21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F21" t="s">
         <v>39</v>
@@ -1567,19 +1567,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22">
         <v>1864923.0590000001</v>
       </c>
       <c r="D22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F22" t="s">
         <v>39</v>
@@ -1587,19 +1587,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>300.30500000000001</v>
       </c>
       <c r="D23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F23" t="s">
         <v>39</v>
@@ -1607,19 +1607,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24">
         <v>451067.93699999998</v>
       </c>
       <c r="D24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F24" t="s">
         <v>39</v>
@@ -1627,19 +1627,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25">
         <v>9839034.7330000009</v>
       </c>
       <c r="D25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F25" t="s">
         <v>39</v>
@@ -1647,19 +1647,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>426278.19700000004</v>
       </c>
       <c r="D26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -1667,19 +1667,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>6502814.0309999995</v>
       </c>
       <c r="D27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -1687,19 +1687,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28">
         <v>49710341.470000006</v>
       </c>
       <c r="D28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F28" t="s">
         <v>39</v>
@@ -1707,19 +1707,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F29" t="s">
         <v>39</v>
@@ -1730,16 +1730,16 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30">
         <v>386.80900000000003</v>
       </c>
       <c r="D30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F30" t="s">
         <v>39</v>
@@ -1750,16 +1750,16 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31">
         <v>4995.366</v>
       </c>
       <c r="D31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F31" t="s">
         <v>39</v>
@@ -1767,19 +1767,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32">
         <v>642162.38599999994</v>
       </c>
       <c r="D32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F32" t="s">
         <v>39</v>
@@ -1787,19 +1787,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33">
         <v>1452385.598</v>
       </c>
       <c r="D33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F33" t="s">
         <v>39</v>
@@ -1807,19 +1807,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34">
         <v>250402.13399999999</v>
       </c>
       <c r="D34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F34" t="s">
         <v>39</v>
@@ -1827,19 +1827,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35">
         <v>880454.73900000006</v>
       </c>
       <c r="D35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F35" t="s">
         <v>39</v>
@@ -1847,19 +1847,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36">
         <v>3354201.5260000001</v>
       </c>
       <c r="D36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F36" t="s">
         <v>39</v>
@@ -1867,19 +1867,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37">
         <v>78455318.859999999</v>
       </c>
       <c r="D37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F37" t="s">
         <v>39</v>
@@ -1890,16 +1890,16 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38">
         <v>82180.112999999998</v>
       </c>
       <c r="D38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F38" t="s">
         <v>39</v>
@@ -1907,19 +1907,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39">
         <v>932.89800000000002</v>
       </c>
       <c r="D39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F39" t="s">
         <v>39</v>
@@ -1927,19 +1927,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40">
         <v>5253760.3449999997</v>
       </c>
       <c r="D40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F40" t="s">
         <v>39</v>
@@ -1947,19 +1947,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41">
         <v>6132050.4170000004</v>
       </c>
       <c r="D41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
@@ -1967,19 +1967,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42">
         <v>4419970.0990000004</v>
       </c>
       <c r="D42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F42" t="s">
         <v>39</v>
@@ -1987,19 +1987,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43">
         <v>40181827.339999996</v>
       </c>
       <c r="D43" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F43" t="s">
         <v>39</v>
@@ -2007,19 +2007,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F44" t="s">
         <v>39</v>
@@ -2027,19 +2027,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F45" t="s">
         <v>39</v>
@@ -2047,19 +2047,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C46">
         <v>12529088.67</v>
       </c>
       <c r="D46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E46" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -2067,19 +2067,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C47">
         <v>16625.436999999998</v>
       </c>
       <c r="D47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E47" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F47" t="s">
         <v>39</v>
@@ -2090,16 +2090,16 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C48">
         <v>1800390.5490000001</v>
       </c>
       <c r="D48" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E48" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
@@ -2110,16 +2110,16 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E49" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F49" t="s">
         <v>39</v>
@@ -2127,19 +2127,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E50" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F50" t="s">
         <v>39</v>
@@ -2147,19 +2147,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51">
         <v>319923.41899999999</v>
       </c>
       <c r="D51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E51" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F51" t="s">
         <v>39</v>
@@ -2170,16 +2170,16 @@
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C52">
         <v>4345077.3650000002</v>
       </c>
       <c r="D52" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F52" t="s">
         <v>39</v>
@@ -2187,19 +2187,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C53">
         <v>249828.43599999999</v>
       </c>
       <c r="D53" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E53" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F53" t="s">
         <v>39</v>
@@ -2207,19 +2207,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C54">
         <v>1649796.0389999999</v>
       </c>
       <c r="D54" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E54" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -2227,19 +2227,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C55">
         <v>45836.574000000001</v>
       </c>
       <c r="D55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E55" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F55" t="s">
         <v>39</v>
@@ -2247,19 +2247,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C56">
         <v>634479.72699999996</v>
       </c>
       <c r="D56" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E56" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F56" t="s">
         <v>39</v>
@@ -2267,19 +2267,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C57">
         <v>400041.011</v>
       </c>
       <c r="D57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E57" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F57" t="s">
         <v>39</v>
@@ -2287,19 +2287,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C58">
         <v>105124.287</v>
       </c>
       <c r="D58" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E58" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F58" t="s">
         <v>39</v>
@@ -2307,19 +2307,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C59">
         <v>1735.8209999999999</v>
       </c>
       <c r="D59" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E59" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -2327,19 +2327,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C60">
         <v>276767.68200000003</v>
       </c>
       <c r="D60" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E60" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F60" t="s">
         <v>39</v>
@@ -2350,16 +2350,16 @@
         <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C61">
         <v>20931.936000000002</v>
       </c>
       <c r="D61" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E61" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F61" t="s">
         <v>39</v>
@@ -2367,19 +2367,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C62">
         <v>1715670.308</v>
       </c>
       <c r="D62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E62" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -2390,16 +2390,16 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C63">
         <v>141180.755</v>
       </c>
       <c r="D63" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E63" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F63" t="s">
         <v>39</v>
@@ -2407,19 +2407,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C64">
         <v>154017.50399999999</v>
       </c>
       <c r="D64" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E64" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F64" t="s">
         <v>39</v>
@@ -2427,19 +2427,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C65">
         <v>52818.464</v>
       </c>
       <c r="D65" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E65" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F65" t="s">
         <v>39</v>
@@ -2447,19 +2447,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C66">
         <v>1168993.6610000001</v>
       </c>
       <c r="D66" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E66" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F66" t="s">
         <v>39</v>
@@ -2467,19 +2467,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C67">
         <v>207397.53099999999</v>
       </c>
       <c r="D67" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E67" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F67" t="s">
         <v>39</v>
@@ -2487,19 +2487,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C68">
         <v>9499401.6559999995</v>
       </c>
       <c r="D68" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E68" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F68" t="s">
         <v>39</v>
@@ -2510,16 +2510,16 @@
         <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C69">
         <v>326238.62900000002</v>
       </c>
       <c r="D69" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E69" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F69" t="s">
         <v>39</v>
@@ -2527,19 +2527,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C70">
         <v>30204.496999999999</v>
       </c>
       <c r="D70" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E70" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F70" t="s">
         <v>39</v>
@@ -2550,16 +2550,16 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C71">
         <v>590.82600000000002</v>
       </c>
       <c r="D71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E71" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F71" t="s">
         <v>39</v>
@@ -2567,19 +2567,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C72">
         <v>11391.784</v>
       </c>
       <c r="D72" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E72" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
@@ -2587,19 +2587,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C73">
         <v>4524542.3139999993</v>
       </c>
       <c r="D73" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E73" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F73" t="s">
         <v>39</v>
@@ -2607,19 +2607,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C74">
         <v>3357562.5720000002</v>
       </c>
       <c r="D74" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E74" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F74" t="s">
         <v>39</v>
@@ -2627,19 +2627,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C75">
         <v>100132.273</v>
       </c>
       <c r="D75" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E75" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F75" t="s">
         <v>39</v>
@@ -2647,19 +2647,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C76">
         <v>903.73899999999992</v>
       </c>
       <c r="D76" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E76" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
@@ -2670,16 +2670,16 @@
         <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C77">
         <v>254249.18099999998</v>
       </c>
       <c r="D77" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E77" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
@@ -2687,19 +2687,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C78">
         <v>532962.429</v>
       </c>
       <c r="D78" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E78" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
@@ -2707,19 +2707,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C79">
         <v>493693.67</v>
       </c>
       <c r="D79" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E79" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F79" t="s">
         <v>39</v>
@@ -2727,19 +2727,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C80">
         <v>3185370.4369999999</v>
       </c>
       <c r="D80" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E80" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F80" t="s">
         <v>39</v>
@@ -2747,19 +2747,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C81">
         <v>2651098.1509999996</v>
       </c>
       <c r="D81" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E81" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
@@ -2767,19 +2767,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C82">
         <v>67.3</v>
       </c>
       <c r="D82" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E82" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
@@ -2787,19 +2787,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C83">
         <v>1119722.2110000001</v>
       </c>
       <c r="D83" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E83" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
@@ -2807,19 +2807,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C84">
         <v>1500187.7159999998</v>
       </c>
       <c r="D84" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E84" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F84" t="s">
         <v>39</v>
@@ -2827,19 +2827,19 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C85">
         <v>1555.998</v>
       </c>
       <c r="D85" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E85" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F85" t="s">
         <v>39</v>
@@ -2847,19 +2847,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C86">
         <v>8766</v>
       </c>
       <c r="D86" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E86" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -2867,19 +2867,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C87">
         <v>10964.618</v>
       </c>
       <c r="D87" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E87" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F87" t="s">
         <v>39</v>
@@ -2887,19 +2887,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C88">
         <v>1197185.341</v>
       </c>
       <c r="D88" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E88" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F88" t="s">
         <v>39</v>
@@ -2907,19 +2907,19 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C89">
         <v>4844235.2120000003</v>
       </c>
       <c r="D89" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E89" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F89" t="s">
         <v>39</v>
@@ -2927,19 +2927,19 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C90">
         <v>529123.48300000001</v>
       </c>
       <c r="D90" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E90" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F90" t="s">
         <v>39</v>
@@ -2947,19 +2947,19 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C91">
         <v>746297.15100000007</v>
       </c>
       <c r="D91" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E91" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F91" t="s">
         <v>39</v>
@@ -2967,19 +2967,19 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C92">
         <v>161507.40899999999</v>
       </c>
       <c r="D92" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E92" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -2987,19 +2987,19 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E93" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F93" t="s">
         <v>39</v>
@@ -3010,16 +3010,16 @@
         <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E94" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F94" t="s">
         <v>39</v>
@@ -3027,19 +3027,19 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C95">
         <v>1043317.606</v>
       </c>
       <c r="D95" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E95" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F95" t="s">
         <v>39</v>
@@ -3050,16 +3050,16 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C96">
         <v>4594.3429999999998</v>
       </c>
       <c r="D96" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E96" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F96" t="s">
         <v>39</v>
@@ -3067,19 +3067,19 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C97">
         <v>81439.744999999995</v>
       </c>
       <c r="D97" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E97" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F97" t="s">
         <v>39</v>
@@ -3087,19 +3087,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C98">
         <v>3257903.929</v>
       </c>
       <c r="D98" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E98" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F98" t="s">
         <v>39</v>
@@ -3107,19 +3107,19 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C99">
         <v>9931502.4700000007</v>
       </c>
       <c r="D99" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E99" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F99" t="s">
         <v>39</v>
@@ -3127,19 +3127,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C100">
         <v>4942199.926</v>
       </c>
       <c r="D100" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E100" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F100" t="s">
         <v>39</v>
@@ -3150,16 +3150,16 @@
         <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C101">
         <v>5238888.7439999999</v>
       </c>
       <c r="D101" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E101" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F101" t="s">
         <v>39</v>
@@ -3167,19 +3167,19 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C102">
         <v>1572281.9349999998</v>
       </c>
       <c r="D102" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E102" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F102" t="s">
         <v>39</v>
@@ -3187,19 +3187,19 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C103">
         <v>2000282.7500000002</v>
       </c>
       <c r="D103" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E103" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F103" t="s">
         <v>39</v>
@@ -3207,19 +3207,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C104">
         <v>120192.96000000001</v>
       </c>
       <c r="D104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E104" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F104" t="s">
         <v>39</v>
@@ -3227,19 +3227,19 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C105">
         <v>1532096.0660000001</v>
       </c>
       <c r="D105" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E105" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F105" t="s">
         <v>39</v>
@@ -3247,19 +3247,19 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C106">
         <v>35577.18</v>
       </c>
       <c r="D106" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E106" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F106" t="s">
         <v>39</v>
@@ -3267,19 +3267,19 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C107">
         <v>1639861.8089999999</v>
       </c>
       <c r="D107" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E107" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F107" t="s">
         <v>39</v>
@@ -3287,19 +3287,19 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C108">
         <v>154118.40900000001</v>
       </c>
       <c r="D108" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E108" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F108" t="s">
         <v>39</v>
@@ -3310,16 +3310,16 @@
         <v>#N/A</v>
       </c>
       <c r="B109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E109" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F109" t="s">
         <v>39</v>
@@ -3327,19 +3327,19 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C110">
         <v>14746622.970000001</v>
       </c>
       <c r="D110" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E110" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F110" t="s">
         <v>39</v>
@@ -3347,19 +3347,19 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C111">
         <v>4575429.2180000003</v>
       </c>
       <c r="D111" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E111" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F111" t="s">
         <v>39</v>
@@ -3367,19 +3367,19 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E112" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F112" t="s">
         <v>39</v>
@@ -3387,19 +3387,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B113" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C113">
         <v>6461.8920000000007</v>
       </c>
       <c r="D113" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E113" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F113" t="s">
         <v>39</v>
@@ -3410,16 +3410,16 @@
         <v>13</v>
       </c>
       <c r="B114" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C114">
         <v>1286810.0250000001</v>
       </c>
       <c r="D114" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E114" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F114" t="s">
         <v>39</v>
@@ -3430,16 +3430,16 @@
         <v>14</v>
       </c>
       <c r="B115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C115">
         <v>1367641.649</v>
       </c>
       <c r="D115" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E115" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F115" t="s">
         <v>39</v>
@@ -3447,19 +3447,19 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C116">
         <v>355495.79799999995</v>
       </c>
       <c r="D116" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E116" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F116" t="s">
         <v>39</v>
@@ -3467,19 +3467,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C117">
         <v>66621.398000000001</v>
       </c>
       <c r="D117" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E117" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F117" t="s">
         <v>39</v>
@@ -3487,19 +3487,19 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C118">
         <v>389047.60200000001</v>
       </c>
       <c r="D118" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E118" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F118" t="s">
         <v>39</v>
@@ -3507,19 +3507,19 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C119">
         <v>443727.68299999996</v>
       </c>
       <c r="D119" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E119" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F119" t="s">
         <v>39</v>
@@ -3527,19 +3527,19 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C120">
         <v>513938.34100000001</v>
       </c>
       <c r="D120" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E120" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F120" t="s">
         <v>39</v>
@@ -3547,19 +3547,19 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C121">
         <v>2026.001</v>
       </c>
       <c r="D121" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E121" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F121" t="s">
         <v>39</v>
@@ -3567,19 +3567,19 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B122" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C122">
         <v>438941.48500000004</v>
       </c>
       <c r="D122" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E122" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F122" t="s">
         <v>39</v>
@@ -3587,19 +3587,19 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B123" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C123">
         <v>36468.554000000004</v>
       </c>
       <c r="D123" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E123" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F123" t="s">
         <v>39</v>
@@ -3610,16 +3610,16 @@
         <v>15</v>
       </c>
       <c r="B124" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C124">
         <v>0</v>
       </c>
       <c r="D124" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E124" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F124" t="s">
         <v>39</v>
@@ -3627,19 +3627,19 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B125" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C125">
         <v>13928570.130000001</v>
       </c>
       <c r="D125" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E125" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F125" t="s">
         <v>39</v>
@@ -3647,19 +3647,19 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C126">
         <v>1261140.639</v>
       </c>
       <c r="D126" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E126" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F126" t="s">
         <v>39</v>
@@ -3667,19 +3667,19 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C127">
         <v>761938.38800000004</v>
       </c>
       <c r="D127" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E127" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F127" t="s">
         <v>39</v>
@@ -3687,19 +3687,19 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B128" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C128">
         <v>0</v>
       </c>
       <c r="D128" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E128" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F128" t="s">
         <v>39</v>
@@ -3707,19 +3707,19 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C129">
         <v>4205698.7299999995</v>
       </c>
       <c r="D129" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E129" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F129" t="s">
         <v>39</v>
@@ -3727,19 +3727,19 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C130">
         <v>632.34900000000005</v>
       </c>
       <c r="D130" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E130" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F130" t="s">
         <v>39</v>
@@ -3747,19 +3747,19 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C131">
         <v>0</v>
       </c>
       <c r="D131" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E131" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F131" t="s">
         <v>39</v>
@@ -3767,19 +3767,19 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B132" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C132">
         <v>13802.402</v>
       </c>
       <c r="D132" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E132" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F132" t="s">
         <v>39</v>
@@ -3787,19 +3787,19 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C133">
         <v>1293089.1669999999</v>
       </c>
       <c r="D133" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E133" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F133" t="s">
         <v>39</v>
@@ -3807,19 +3807,19 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B134" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C134">
         <v>29552.380999999998</v>
       </c>
       <c r="D134" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E134" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F134" t="s">
         <v>39</v>
@@ -3827,19 +3827,19 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B135" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C135">
         <v>1176.9289999999999</v>
       </c>
       <c r="D135" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E135" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F135" t="s">
         <v>39</v>
@@ -3847,19 +3847,19 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B136" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C136">
         <v>22284147.539999999</v>
       </c>
       <c r="D136" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E136" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F136" t="s">
         <v>39</v>
@@ -3870,16 +3870,16 @@
         <v>#N/A</v>
       </c>
       <c r="B137" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E137" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F137" t="s">
         <v>39</v>
@@ -3887,19 +3887,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B138" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C138">
         <v>27578.420999999998</v>
       </c>
       <c r="D138" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E138" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F138" t="s">
         <v>39</v>
@@ -3907,19 +3907,19 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C139">
         <v>8.7600000000000016</v>
       </c>
       <c r="D139" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E139" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F139" t="s">
         <v>39</v>
@@ -3927,19 +3927,19 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B140" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C140">
         <v>6843684.1540000001</v>
       </c>
       <c r="D140" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E140" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F140" t="s">
         <v>39</v>
@@ -3947,19 +3947,19 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B141" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C141">
         <v>1331.5359999999998</v>
       </c>
       <c r="D141" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E141" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F141" t="s">
         <v>39</v>
@@ -3967,19 +3967,19 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B142" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C142">
         <v>928460.32900000003</v>
       </c>
       <c r="D142" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E142" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F142" t="s">
         <v>39</v>
@@ -3987,19 +3987,19 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B143" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C143">
         <v>8596040.7540000007</v>
       </c>
       <c r="D143" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E143" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F143" t="s">
         <v>39</v>
@@ -4007,19 +4007,19 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B144" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C144">
         <v>4137879.3610000005</v>
       </c>
       <c r="D144" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E144" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F144" t="s">
         <v>39</v>
@@ -4027,19 +4027,19 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B145" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C145">
         <v>9204901.3969999999</v>
       </c>
       <c r="D145" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E145" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F145" t="s">
         <v>39</v>
@@ -4047,19 +4047,19 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B146" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C146">
         <v>0</v>
       </c>
       <c r="D146" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E146" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F146" t="s">
         <v>39</v>
@@ -4067,19 +4067,19 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B147" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C147">
         <v>1400683.2789999999</v>
       </c>
       <c r="D147" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E147" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F147" t="s">
         <v>39</v>
@@ -4087,19 +4087,19 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B148" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C148">
         <v>189014.66899999999</v>
       </c>
       <c r="D148" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E148" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F148" t="s">
         <v>39</v>
@@ -4107,19 +4107,19 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B149" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C149">
         <v>6575.607</v>
       </c>
       <c r="D149" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E149" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F149" t="s">
         <v>39</v>
@@ -4127,19 +4127,19 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B150" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C150">
         <v>182173.511</v>
       </c>
       <c r="D150" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E150" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F150" t="s">
         <v>39</v>
@@ -4147,19 +4147,19 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B151" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C151">
         <v>2450991.7719999999</v>
       </c>
       <c r="D151" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E151" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F151" t="s">
         <v>39</v>
@@ -4167,19 +4167,19 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B152" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C152">
         <v>856056.41399999999</v>
       </c>
       <c r="D152" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E152" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F152" t="s">
         <v>39</v>
@@ -4187,19 +4187,19 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B153" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C153">
         <v>2258860.963</v>
       </c>
       <c r="D153" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E153" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F153" t="s">
         <v>39</v>
@@ -4207,19 +4207,19 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B154" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C154">
         <v>8416618.4410000015</v>
       </c>
       <c r="D154" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E154" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F154" t="s">
         <v>39</v>
@@ -4227,19 +4227,19 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B155" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C155">
         <v>564.68499999999995</v>
       </c>
       <c r="D155" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E155" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F155" t="s">
         <v>39</v>
@@ -4247,19 +4247,19 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B156" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C156">
         <v>516.92999999999995</v>
       </c>
       <c r="D156" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E156" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F156" t="s">
         <v>39</v>
@@ -4270,16 +4270,16 @@
         <v>16</v>
       </c>
       <c r="B157" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C157">
         <v>3901804.5929999999</v>
       </c>
       <c r="D157" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E157" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F157" t="s">
         <v>39</v>
@@ -4287,19 +4287,19 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B158" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C158">
         <v>2610.9850000000001</v>
       </c>
       <c r="D158" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E158" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F158" t="s">
         <v>39</v>
@@ -4307,19 +4307,19 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B159" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C159">
         <v>5419104.6490000002</v>
       </c>
       <c r="D159" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E159" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F159" t="s">
         <v>39</v>
@@ -4327,19 +4327,19 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B160" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C160">
         <v>166814.72999999998</v>
       </c>
       <c r="D160" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E160" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F160" t="s">
         <v>39</v>
@@ -4347,19 +4347,19 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B161" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C161">
         <v>2780664.3929999997</v>
       </c>
       <c r="D161" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E161" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F161" t="s">
         <v>39</v>
@@ -4367,19 +4367,19 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B162" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C162">
         <v>693.49099999999999</v>
       </c>
       <c r="D162" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E162" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F162" t="s">
         <v>39</v>
@@ -4387,19 +4387,19 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B163" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C163">
         <v>717733.71299999999</v>
       </c>
       <c r="D163" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E163" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F163" t="s">
         <v>39</v>
@@ -4407,19 +4407,19 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B164" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C164">
         <v>1145975.412</v>
       </c>
       <c r="D164" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E164" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F164" t="s">
         <v>39</v>
@@ -4427,19 +4427,19 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B165" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C165">
         <v>5848737.4900000002</v>
       </c>
       <c r="D165" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E165" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F165" t="s">
         <v>39</v>
@@ -4447,19 +4447,19 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B166" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C166">
         <v>5519971.2609999999</v>
       </c>
       <c r="D166" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E166" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F166" t="s">
         <v>39</v>
@@ -4467,19 +4467,19 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B167" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C167">
         <v>1152875.0020000001</v>
       </c>
       <c r="D167" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E167" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F167" t="s">
         <v>39</v>
@@ -4490,16 +4490,16 @@
         <v>17</v>
       </c>
       <c r="B168" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C168">
         <v>0</v>
       </c>
       <c r="D168" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E168" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F168" t="s">
         <v>39</v>
@@ -4507,19 +4507,19 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B169" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C169">
         <v>1862215.0799999998</v>
       </c>
       <c r="D169" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E169" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F169" t="s">
         <v>39</v>
@@ -4527,19 +4527,19 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B170" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C170">
         <v>916973.93299999996</v>
       </c>
       <c r="D170" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E170" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F170" t="s">
         <v>39</v>
@@ -4547,19 +4547,19 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B171" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C171">
         <v>59556.464</v>
       </c>
       <c r="D171" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E171" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F171" t="s">
         <v>39</v>
@@ -4567,19 +4567,19 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B172" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C172">
         <v>3385.7710000000002</v>
       </c>
       <c r="D172" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E172" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F172" t="s">
         <v>39</v>
@@ -4590,16 +4590,16 @@
         <v>18</v>
       </c>
       <c r="B173" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C173">
         <v>43984.600999999995</v>
       </c>
       <c r="D173" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E173" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F173" t="s">
         <v>39</v>
@@ -4607,19 +4607,19 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B174" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C174">
         <v>876267.80299999996</v>
       </c>
       <c r="D174" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E174" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F174" t="s">
         <v>39</v>
@@ -4630,16 +4630,16 @@
         <v>19</v>
       </c>
       <c r="B175" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C175">
         <v>150618199.09999999</v>
       </c>
       <c r="D175" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E175" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F175" t="s">
         <v>39</v>
@@ -4647,19 +4647,19 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B176" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C176">
         <v>179082.345</v>
       </c>
       <c r="D176" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E176" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F176" t="s">
         <v>39</v>
@@ -4670,16 +4670,16 @@
         <v>20</v>
       </c>
       <c r="B177" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C177">
         <v>795.91300000000001</v>
       </c>
       <c r="D177" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E177" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F177" t="s">
         <v>39</v>
@@ -4690,16 +4690,16 @@
         <v>21</v>
       </c>
       <c r="B178" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C178">
         <v>1202.778</v>
       </c>
       <c r="D178" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E178" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F178" t="s">
         <v>39</v>
@@ -4710,16 +4710,16 @@
         <v>22</v>
       </c>
       <c r="B179" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C179">
         <v>1947.3340000000001</v>
       </c>
       <c r="D179" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E179" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F179" t="s">
         <v>39</v>
@@ -4727,19 +4727,19 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B180" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C180">
         <v>4405.1729999999998</v>
       </c>
       <c r="D180" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E180" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F180" t="s">
         <v>39</v>
@@ -4750,16 +4750,16 @@
         <v>23</v>
       </c>
       <c r="B181" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C181">
         <v>2661.4659999999999</v>
       </c>
       <c r="D181" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E181" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F181" t="s">
         <v>39</v>
@@ -4767,19 +4767,19 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B182" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C182">
         <v>110656.485</v>
       </c>
       <c r="D182" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E182" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F182" t="s">
         <v>39</v>
@@ -4790,16 +4790,16 @@
         <v>24</v>
       </c>
       <c r="B183" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C183">
         <v>47962.805999999997</v>
       </c>
       <c r="D183" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E183" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F183" t="s">
         <v>39</v>
@@ -4807,19 +4807,19 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B184" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C184">
         <v>907617.31799999997</v>
       </c>
       <c r="D184" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E184" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F184" t="s">
         <v>39</v>
@@ -4827,19 +4827,19 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B185" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C185">
         <v>1800002.6360000002</v>
       </c>
       <c r="D185" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E185" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F185" t="s">
         <v>39</v>
@@ -4847,19 +4847,19 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B186" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C186">
         <v>3786.6489999999999</v>
       </c>
       <c r="D186" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E186" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F186" t="s">
         <v>39</v>
@@ -4867,19 +4867,19 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B187" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C187">
         <v>800683.25</v>
       </c>
       <c r="D187" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E187" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F187" t="s">
         <v>39</v>
@@ -4887,19 +4887,19 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B188" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C188">
         <v>1417.31</v>
       </c>
       <c r="D188" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E188" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F188" t="s">
         <v>39</v>
@@ -4910,16 +4910,16 @@
         <v>25</v>
       </c>
       <c r="B189" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C189">
         <v>267346.163</v>
       </c>
       <c r="D189" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E189" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F189" t="s">
         <v>39</v>
@@ -4927,19 +4927,19 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B190" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C190">
         <v>188112.228</v>
       </c>
       <c r="D190" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E190" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F190" t="s">
         <v>39</v>
@@ -4947,19 +4947,19 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B191" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C191">
         <v>39873.019</v>
       </c>
       <c r="D191" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E191" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F191" t="s">
         <v>39</v>
@@ -4967,19 +4967,19 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B192" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C192">
         <v>2803970.5549999997</v>
       </c>
       <c r="D192" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E192" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F192" t="s">
         <v>39</v>
@@ -4987,19 +4987,19 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B193" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C193">
         <v>8372258.7359999996</v>
       </c>
       <c r="D193" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E193" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F193" t="s">
         <v>39</v>
@@ -5007,19 +5007,19 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B194" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C194">
         <v>26607.845000000001</v>
       </c>
       <c r="D194" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E194" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F194" t="s">
         <v>39</v>
@@ -5030,16 +5030,16 @@
         <v>26</v>
       </c>
       <c r="B195" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C195">
         <v>1950008.202</v>
       </c>
       <c r="D195" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E195" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F195" t="s">
         <v>39</v>
@@ -5047,19 +5047,19 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B196" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C196">
         <v>3099383.9819999998</v>
       </c>
       <c r="D196" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E196" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F196" t="s">
         <v>39</v>
@@ -5067,19 +5067,19 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B197" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C197">
         <v>933464.54599999997</v>
       </c>
       <c r="D197" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E197" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F197" t="s">
         <v>39</v>
@@ -5087,19 +5087,19 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B198" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C198">
         <v>8803726.2340000011</v>
       </c>
       <c r="D198" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E198" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F198" t="s">
         <v>39</v>
@@ -5107,19 +5107,19 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B199" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C199">
         <v>281890.90600000002</v>
       </c>
       <c r="D199" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E199" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F199" t="s">
         <v>39</v>
@@ -5130,16 +5130,16 @@
         <v>27</v>
       </c>
       <c r="B200" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C200">
         <v>215821.15900000001</v>
       </c>
       <c r="D200" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E200" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F200" t="s">
         <v>39</v>
@@ -5147,19 +5147,19 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B201" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C201">
         <v>143304.796</v>
       </c>
       <c r="D201" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E201" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F201" t="s">
         <v>39</v>
@@ -5167,19 +5167,19 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B202" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C202">
         <v>5701163.4759999998</v>
       </c>
       <c r="D202" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E202" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F202" t="s">
         <v>39</v>
@@ -5187,19 +5187,19 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B203" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C203">
         <v>728167.53300000005</v>
       </c>
       <c r="D203" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E203" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F203" t="s">
         <v>39</v>
@@ -5210,16 +5210,16 @@
         <v>28</v>
       </c>
       <c r="B204" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C204">
         <v>791035.74899999995</v>
       </c>
       <c r="D204" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E204" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F204" t="s">
         <v>39</v>
@@ -5230,16 +5230,16 @@
         <v>29</v>
       </c>
       <c r="B205" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C205">
         <v>190455.77100000001</v>
       </c>
       <c r="D205" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E205" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F205" t="s">
         <v>39</v>
@@ -5247,19 +5247,19 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B206" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C206">
         <v>568458.55300000007</v>
       </c>
       <c r="D206" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E206" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F206" t="s">
         <v>39</v>
@@ -5267,19 +5267,19 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B207" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C207">
         <v>7160113.9509999994</v>
       </c>
       <c r="D207" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E207" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F207" t="s">
         <v>39</v>
@@ -5287,19 +5287,19 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B208" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C208">
         <v>3064850.6030000001</v>
       </c>
       <c r="D208" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E208" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F208" t="s">
         <v>39</v>
@@ -5310,16 +5310,16 @@
         <v>30</v>
       </c>
       <c r="B209" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C209">
         <v>100760.478</v>
       </c>
       <c r="D209" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E209" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F209" t="s">
         <v>39</v>
@@ -5330,16 +5330,16 @@
         <v>31</v>
       </c>
       <c r="B210" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C210">
         <v>111042.70600000001</v>
       </c>
       <c r="D210" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E210" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F210" t="s">
         <v>39</v>
@@ -5347,19 +5347,19 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B211" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C211">
         <v>918278.80299999996</v>
       </c>
       <c r="D211" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E211" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F211" t="s">
         <v>39</v>
@@ -5367,19 +5367,19 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B212" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C212">
         <v>5460.9389999999994</v>
       </c>
       <c r="D212" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E212" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F212" t="s">
         <v>39</v>
@@ -5387,19 +5387,19 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B213" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C213">
         <v>42915.014999999999</v>
       </c>
       <c r="D213" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E213" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F213" t="s">
         <v>39</v>
@@ -5407,19 +5407,19 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B214" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C214">
         <v>374215.26</v>
       </c>
       <c r="D214" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E214" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F214" t="s">
         <v>39</v>
@@ -5427,19 +5427,19 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B215" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C215">
         <v>5340984.9960000003</v>
       </c>
       <c r="D215" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E215" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F215" t="s">
         <v>39</v>
@@ -5447,19 +5447,19 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B216" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C216">
         <v>1024461.818</v>
       </c>
       <c r="D216" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E216" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F216" t="s">
         <v>39</v>
@@ -5470,16 +5470,16 @@
         <v>32</v>
       </c>
       <c r="B217" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C217">
         <v>1563.69</v>
       </c>
       <c r="D217" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E217" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F217" t="s">
         <v>39</v>
@@ -5487,19 +5487,19 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B218" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C218">
         <v>9.74</v>
       </c>
       <c r="D218" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E218" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F218" t="s">
         <v>39</v>
@@ -5507,19 +5507,19 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B219" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C219">
         <v>429292.03899999999</v>
       </c>
       <c r="D219" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E219" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F219" t="s">
         <v>39</v>
@@ -5527,19 +5527,19 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B220" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C220">
         <v>1219252.6459999999</v>
       </c>
       <c r="D220" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E220" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F220" t="s">
         <v>39</v>
@@ -5547,19 +5547,19 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B221" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C221">
         <v>87295.183999999994</v>
       </c>
       <c r="D221" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E221" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F221" t="s">
         <v>39</v>
@@ -5567,19 +5567,19 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B222" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C222">
         <v>4685712.6169999996</v>
       </c>
       <c r="D222" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E222" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F222" t="s">
         <v>39</v>
@@ -5587,19 +5587,19 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B223" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C223">
         <v>103494251.59999999</v>
       </c>
       <c r="D223" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E223" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F223" t="s">
         <v>39</v>
@@ -5607,19 +5607,19 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B224" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C224">
         <v>618955.799</v>
       </c>
       <c r="D224" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E224" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F224" t="s">
         <v>39</v>
@@ -5627,19 +5627,19 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B225" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C225">
         <v>1177727.3630000001</v>
       </c>
       <c r="D225" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E225" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F225" t="s">
         <v>39</v>
@@ -5647,19 +5647,19 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B226" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C226">
         <v>24204.381000000001</v>
       </c>
       <c r="D226" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E226" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F226" t="s">
         <v>39</v>
@@ -5670,16 +5670,16 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C227">
         <v>6975530.1850000005</v>
       </c>
       <c r="D227" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E227" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F227" t="s">
         <v>39</v>
@@ -5687,19 +5687,19 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B228" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C228">
         <v>3122845.0520000001</v>
       </c>
       <c r="D228" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E228" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F228" t="s">
         <v>39</v>
@@ -5710,16 +5710,16 @@
         <v>34</v>
       </c>
       <c r="B229" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C229">
         <v>588.976</v>
       </c>
       <c r="D229" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E229" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F229" t="s">
         <v>39</v>
@@ -5730,16 +5730,16 @@
         <v>#N/A</v>
       </c>
       <c r="B230" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C230">
         <v>0</v>
       </c>
       <c r="D230" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E230" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F230" t="s">
         <v>39</v>
@@ -5747,19 +5747,19 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C231">
         <v>483.43799999999999</v>
       </c>
       <c r="D231" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E231" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F231" t="s">
         <v>39</v>
@@ -5767,19 +5767,19 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C232">
         <v>16094.146000000001</v>
       </c>
       <c r="D232" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E232" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F232" t="s">
         <v>39</v>
@@ -5790,16 +5790,16 @@
         <v>35</v>
       </c>
       <c r="B233" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C233">
         <v>889426.87300000002</v>
       </c>
       <c r="D233" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E233" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F233" t="s">
         <v>39</v>
@@ -5810,16 +5810,16 @@
         <v>36</v>
       </c>
       <c r="B234" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C234">
         <v>684440.72400000005</v>
       </c>
       <c r="D234" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E234" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F234" t="s">
         <v>39</v>
@@ -5827,19 +5827,19 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B235" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C235">
         <v>10804289.029999999</v>
       </c>
       <c r="D235" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E235" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F235" t="s">
         <v>39</v>
@@ -5847,19 +5847,19 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B236" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C236">
         <v>7021692.1120000007</v>
       </c>
       <c r="D236" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E236" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F236" t="s">
         <v>39</v>
